--- a/Original/Tables/NewTU_Buildings_ORG.xlsx
+++ b/Original/Tables/NewTU_Buildings_ORG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7703" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7708" uniqueCount="1405">
   <si>
     <t>ID</t>
   </si>
@@ -4315,13 +4315,19 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>OneType_OneStatement</t>
+  </si>
+  <si>
+    <t>OneType_PredefineStatement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4375,8 +4381,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4449,6 +4463,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -4511,7 +4531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4600,9 +4620,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4733,6 +4750,12 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5087,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EW142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5102,11 +5125,11 @@
     <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="4.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="76" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="77" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="78" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="79" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="95" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="75" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="76" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="77" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="78" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="94" customWidth="1"/>
     <col min="15" max="16" width="10.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="10" customWidth="1"/>
     <col min="18" max="20" width="4.7109375" style="1" customWidth="1"/>
@@ -5160,22 +5183,22 @@
       <c r="H1" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="49" t="s">
         <v>325</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -5196,10 +5219,10 @@
       <c r="T1" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="51" t="s">
         <v>346</v>
       </c>
       <c r="W1" s="8" t="s">
@@ -5598,14 +5621,14 @@
     </row>
     <row r="2" spans="1:153" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="55"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
     </row>
     <row r="3" spans="1:153" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -5629,27 +5652,27 @@
       <c r="H3" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="80" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="79" t="s">
         <v>360</v>
       </c>
       <c r="Q3" s="11"/>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V3" s="82">
+      <c r="V3" s="81">
         <v>58</v>
       </c>
       <c r="W3" s="5">
@@ -5685,27 +5708,27 @@
       <c r="H4" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="60" t="s">
         <v>447</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="83" t="s">
+      <c r="M4" s="62"/>
+      <c r="N4" s="82" t="s">
         <v>360</v>
       </c>
       <c r="Q4" s="44"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V4" s="85">
+      <c r="V4" s="84">
         <v>29</v>
       </c>
       <c r="W4" s="43">
@@ -5741,27 +5764,27 @@
       <c r="H5" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="83" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="82" t="s">
         <v>366</v>
       </c>
       <c r="Q5" s="44"/>
-      <c r="U5" s="84" t="s">
+      <c r="U5" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V5" s="85">
+      <c r="V5" s="84">
         <v>63</v>
       </c>
       <c r="W5" s="43">
@@ -5794,27 +5817,27 @@
       <c r="H6" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>957</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="56" t="s">
         <v>958</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="56" t="s">
         <v>959</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>960</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="80" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="79" t="s">
         <v>961</v>
       </c>
       <c r="Q6" s="11"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="80" t="s">
         <v>962</v>
       </c>
-      <c r="V6" s="82">
+      <c r="V6" s="81">
         <v>0</v>
       </c>
       <c r="W6" s="5">
@@ -5856,27 +5879,27 @@
       <c r="H7" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="61" t="s">
         <v>552</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="83" t="s">
+      <c r="M7" s="62"/>
+      <c r="N7" s="82" t="s">
         <v>553</v>
       </c>
       <c r="Q7" s="44"/>
-      <c r="U7" s="84" t="s">
+      <c r="U7" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="84">
         <v>32</v>
       </c>
       <c r="W7" s="43">
@@ -5918,27 +5941,27 @@
       <c r="H8" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="80" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="79" t="s">
         <v>373</v>
       </c>
       <c r="Q8" s="11"/>
-      <c r="U8" s="81" t="s">
+      <c r="U8" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V8" s="82">
+      <c r="V8" s="81">
         <v>39</v>
       </c>
       <c r="W8" s="5">
@@ -5980,30 +6003,30 @@
       <c r="H9" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="60" t="s">
         <v>554</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="60" t="s">
         <v>555</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="83" t="s">
+      <c r="M9" s="62"/>
+      <c r="N9" s="82" t="s">
         <v>557</v>
       </c>
       <c r="Q9" s="44"/>
       <c r="R9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="84" t="s">
+      <c r="U9" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V9" s="85">
+      <c r="V9" s="84">
         <v>33</v>
       </c>
       <c r="W9" s="43">
@@ -6045,27 +6068,27 @@
       <c r="H10" s="43" t="s">
         <v>980</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="60" t="s">
         <v>547</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="61" t="s">
         <v>549</v>
       </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="83" t="s">
+      <c r="M10" s="62"/>
+      <c r="N10" s="82" t="s">
         <v>546</v>
       </c>
       <c r="Q10" s="44"/>
-      <c r="U10" s="84" t="s">
+      <c r="U10" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V10" s="85">
+      <c r="V10" s="84">
         <v>9</v>
       </c>
       <c r="W10" s="43">
@@ -6104,27 +6127,27 @@
       <c r="H11" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="60" t="s">
         <v>559</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="61" t="s">
         <v>558</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="83" t="s">
+      <c r="M11" s="62"/>
+      <c r="N11" s="82" t="s">
         <v>561</v>
       </c>
       <c r="Q11" s="44"/>
-      <c r="U11" s="84" t="s">
+      <c r="U11" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V11" s="85">
+      <c r="V11" s="84">
         <v>10</v>
       </c>
       <c r="W11" s="43">
@@ -6172,27 +6195,27 @@
       <c r="H12" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="80" t="s">
+      <c r="M12" s="58"/>
+      <c r="N12" s="79" t="s">
         <v>382</v>
       </c>
       <c r="Q12" s="11"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V12" s="82">
+      <c r="V12" s="81">
         <v>61</v>
       </c>
       <c r="W12" s="5">
@@ -6231,27 +6254,27 @@
       <c r="H13" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>1246</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="56" t="s">
         <v>1247</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="56" t="s">
         <v>1248</v>
       </c>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="57" t="s">
         <v>1249</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="80" t="s">
+      <c r="M13" s="58"/>
+      <c r="N13" s="79" t="s">
         <v>382</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="U13" s="81" t="s">
+      <c r="U13" s="80" t="s">
         <v>1250</v>
       </c>
-      <c r="V13" s="82">
+      <c r="V13" s="81">
         <v>2</v>
       </c>
       <c r="W13" s="5">
@@ -6290,27 +6313,27 @@
       <c r="H14" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="60" t="s">
         <v>536</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="61" t="s">
         <v>537</v>
       </c>
-      <c r="M14" s="63"/>
-      <c r="N14" s="83" t="s">
+      <c r="M14" s="62"/>
+      <c r="N14" s="82" t="s">
         <v>382</v>
       </c>
       <c r="Q14" s="44"/>
-      <c r="U14" s="84" t="s">
+      <c r="U14" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V14" s="85">
+      <c r="V14" s="84">
         <v>5</v>
       </c>
       <c r="W14" s="43">
@@ -6346,27 +6369,27 @@
       <c r="H15" s="43" t="s">
         <v>979</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="61" t="s">
         <v>541</v>
       </c>
-      <c r="M15" s="63"/>
-      <c r="N15" s="83" t="s">
+      <c r="M15" s="62"/>
+      <c r="N15" s="82" t="s">
         <v>382</v>
       </c>
       <c r="Q15" s="44"/>
-      <c r="U15" s="84" t="s">
+      <c r="U15" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V15" s="85">
+      <c r="V15" s="84">
         <v>6</v>
       </c>
       <c r="W15" s="43">
@@ -6399,27 +6422,27 @@
       <c r="H16" s="43" t="s">
         <v>542</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="K16" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="83" t="s">
+      <c r="M16" s="62"/>
+      <c r="N16" s="82" t="s">
         <v>546</v>
       </c>
       <c r="Q16" s="44"/>
-      <c r="U16" s="84" t="s">
+      <c r="U16" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V16" s="85">
+      <c r="V16" s="84">
         <v>8</v>
       </c>
       <c r="W16" s="43">
@@ -6452,27 +6475,27 @@
       <c r="H17" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="56" t="s">
         <v>387</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="80" t="s">
+      <c r="M17" s="58"/>
+      <c r="N17" s="79" t="s">
         <v>389</v>
       </c>
       <c r="Q17" s="11"/>
-      <c r="U17" s="81" t="s">
+      <c r="U17" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V17" s="82">
+      <c r="V17" s="81">
         <v>57</v>
       </c>
       <c r="W17" s="5">
@@ -6516,27 +6539,27 @@
       <c r="H18" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="60" t="s">
         <v>576</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="61" t="s">
         <v>1195</v>
       </c>
-      <c r="M18" s="63"/>
-      <c r="N18" s="83" t="s">
+      <c r="M18" s="62"/>
+      <c r="N18" s="82" t="s">
         <v>389</v>
       </c>
       <c r="Q18" s="44"/>
-      <c r="U18" s="84" t="s">
+      <c r="U18" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V18" s="85">
+      <c r="V18" s="84">
         <v>28</v>
       </c>
       <c r="W18" s="43">
@@ -6580,27 +6603,27 @@
       <c r="H19" s="43" t="s">
         <v>981</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="61" t="s">
         <v>580</v>
       </c>
-      <c r="M19" s="63"/>
-      <c r="N19" s="83" t="s">
+      <c r="M19" s="62"/>
+      <c r="N19" s="82" t="s">
         <v>581</v>
       </c>
       <c r="Q19" s="44"/>
-      <c r="U19" s="84" t="s">
+      <c r="U19" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V19" s="85">
+      <c r="V19" s="84">
         <v>3</v>
       </c>
       <c r="W19" s="43">
@@ -6641,27 +6664,27 @@
       <c r="H20" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="60" t="s">
         <v>463</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="61" t="s">
         <v>464</v>
       </c>
-      <c r="M20" s="63"/>
-      <c r="N20" s="83" t="s">
+      <c r="M20" s="62"/>
+      <c r="N20" s="82" t="s">
         <v>465</v>
       </c>
       <c r="Q20" s="44"/>
-      <c r="U20" s="84" t="s">
+      <c r="U20" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V20" s="85">
+      <c r="V20" s="84">
         <v>30</v>
       </c>
       <c r="W20" s="43">
@@ -6697,27 +6720,27 @@
       <c r="H21" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="83" t="s">
+      <c r="M21" s="62"/>
+      <c r="N21" s="82" t="s">
         <v>465</v>
       </c>
       <c r="Q21" s="44"/>
-      <c r="U21" s="84" t="s">
+      <c r="U21" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V21" s="85">
+      <c r="V21" s="84">
         <v>31</v>
       </c>
       <c r="W21" s="43">
@@ -6753,27 +6776,27 @@
       <c r="H22" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="60" t="s">
         <v>585</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="61" t="s">
         <v>583</v>
       </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="83" t="s">
+      <c r="M22" s="62"/>
+      <c r="N22" s="82" t="s">
         <v>465</v>
       </c>
       <c r="Q22" s="44"/>
-      <c r="U22" s="84" t="s">
+      <c r="U22" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V22" s="85">
+      <c r="V22" s="84">
         <v>43</v>
       </c>
       <c r="W22" s="43">
@@ -6809,27 +6832,27 @@
       <c r="H23" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="60" t="s">
         <v>588</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="61" t="s">
         <v>589</v>
       </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="83" t="s">
+      <c r="M23" s="62"/>
+      <c r="N23" s="82" t="s">
         <v>465</v>
       </c>
       <c r="Q23" s="44"/>
-      <c r="U23" s="84" t="s">
+      <c r="U23" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V23" s="85">
+      <c r="V23" s="84">
         <v>54</v>
       </c>
       <c r="W23" s="43">
@@ -6865,27 +6888,27 @@
       <c r="H24" s="43" t="s">
         <v>662</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="60" t="s">
         <v>828</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="K24" s="60" t="s">
         <v>829</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="61" t="s">
         <v>830</v>
       </c>
-      <c r="M24" s="63"/>
-      <c r="N24" s="83" t="s">
+      <c r="M24" s="62"/>
+      <c r="N24" s="82" t="s">
         <v>389</v>
       </c>
       <c r="Q24" s="44"/>
-      <c r="U24" s="84" t="s">
+      <c r="U24" s="83" t="s">
         <v>827</v>
       </c>
-      <c r="V24" s="85">
+      <c r="V24" s="84">
         <v>1</v>
       </c>
       <c r="W24" s="43">
@@ -6924,27 +6947,27 @@
       <c r="H25" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="60" t="s">
         <v>454</v>
       </c>
-      <c r="K25" s="61" t="s">
+      <c r="K25" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="M25" s="63"/>
-      <c r="N25" s="83" t="s">
+      <c r="M25" s="62"/>
+      <c r="N25" s="82" t="s">
         <v>389</v>
       </c>
       <c r="Q25" s="44"/>
-      <c r="U25" s="84" t="s">
+      <c r="U25" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V25" s="85">
+      <c r="V25" s="84">
         <v>2</v>
       </c>
       <c r="W25" s="43">
@@ -6980,27 +7003,27 @@
       <c r="H26" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="55" t="s">
         <v>1253</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="56" t="s">
         <v>1254</v>
       </c>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="56" t="s">
         <v>1255</v>
       </c>
-      <c r="L26" s="58" t="s">
+      <c r="L26" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="80" t="s">
+      <c r="M26" s="58"/>
+      <c r="N26" s="79" t="s">
         <v>1257</v>
       </c>
       <c r="Q26" s="11"/>
-      <c r="U26" s="81" t="s">
+      <c r="U26" s="80" t="s">
         <v>1250</v>
       </c>
-      <c r="V26" s="82">
+      <c r="V26" s="81">
         <v>1</v>
       </c>
       <c r="W26" s="5">
@@ -7033,27 +7056,27 @@
       <c r="H27" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="K27" s="61" t="s">
+      <c r="K27" s="60" t="s">
         <v>443</v>
       </c>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="61" t="s">
         <v>444</v>
       </c>
-      <c r="M27" s="63"/>
-      <c r="N27" s="83" t="s">
+      <c r="M27" s="62"/>
+      <c r="N27" s="82" t="s">
         <v>445</v>
       </c>
       <c r="Q27" s="44"/>
-      <c r="U27" s="84" t="s">
+      <c r="U27" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V27" s="85">
+      <c r="V27" s="84">
         <v>7</v>
       </c>
       <c r="W27" s="43">
@@ -7083,27 +7106,27 @@
       <c r="H28" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="55" t="s">
         <v>1137</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="56" t="s">
         <v>1138</v>
       </c>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="56" t="s">
         <v>1139</v>
       </c>
-      <c r="L28" s="58" t="s">
+      <c r="L28" s="57" t="s">
         <v>1140</v>
       </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="80" t="s">
+      <c r="M28" s="58"/>
+      <c r="N28" s="79" t="s">
         <v>389</v>
       </c>
       <c r="Q28" s="11"/>
-      <c r="U28" s="81" t="s">
+      <c r="U28" s="80" t="s">
         <v>955</v>
       </c>
-      <c r="V28" s="82">
+      <c r="V28" s="81">
         <v>4</v>
       </c>
       <c r="W28" s="5">
@@ -7144,27 +7167,27 @@
       <c r="H29" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="61" t="s">
+      <c r="J29" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="K29" s="61" t="s">
+      <c r="K29" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="L29" s="62" t="s">
+      <c r="L29" s="61" t="s">
         <v>460</v>
       </c>
-      <c r="M29" s="63"/>
-      <c r="N29" s="83" t="s">
+      <c r="M29" s="62"/>
+      <c r="N29" s="82" t="s">
         <v>389</v>
       </c>
       <c r="Q29" s="44"/>
-      <c r="U29" s="84" t="s">
+      <c r="U29" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V29" s="85">
+      <c r="V29" s="84">
         <v>1</v>
       </c>
       <c r="W29" s="43">
@@ -7205,27 +7228,27 @@
       <c r="H30" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="L30" s="58" t="s">
+      <c r="L30" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="80" t="s">
+      <c r="M30" s="58"/>
+      <c r="N30" s="79" t="s">
         <v>397</v>
       </c>
       <c r="Q30" s="11"/>
-      <c r="U30" s="81" t="s">
+      <c r="U30" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V30" s="82">
+      <c r="V30" s="81">
         <v>50</v>
       </c>
       <c r="W30" s="5">
@@ -7272,27 +7295,27 @@
       <c r="H31" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="J31" s="61" t="s">
+      <c r="J31" s="60" t="s">
         <v>590</v>
       </c>
-      <c r="K31" s="61" t="s">
+      <c r="K31" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="L31" s="62" t="s">
+      <c r="L31" s="61" t="s">
         <v>591</v>
       </c>
-      <c r="M31" s="63"/>
-      <c r="N31" s="83" t="s">
+      <c r="M31" s="62"/>
+      <c r="N31" s="82" t="s">
         <v>397</v>
       </c>
       <c r="Q31" s="44"/>
-      <c r="U31" s="84" t="s">
+      <c r="U31" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V31" s="85">
+      <c r="V31" s="84">
         <v>16</v>
       </c>
       <c r="W31" s="43">
@@ -7336,27 +7359,27 @@
       <c r="H32" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="80" t="s">
+      <c r="M32" s="58"/>
+      <c r="N32" s="79" t="s">
         <v>406</v>
       </c>
       <c r="Q32" s="11"/>
-      <c r="U32" s="81" t="s">
+      <c r="U32" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V32" s="82">
+      <c r="V32" s="81">
         <v>53</v>
       </c>
       <c r="W32" s="5">
@@ -7403,27 +7426,27 @@
       <c r="H33" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="55" t="s">
         <v>1269</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="56" t="s">
         <v>1270</v>
       </c>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="56" t="s">
         <v>1271</v>
       </c>
-      <c r="L33" s="58" t="s">
+      <c r="L33" s="57" t="s">
         <v>1272</v>
       </c>
-      <c r="M33" s="59"/>
-      <c r="N33" s="80" t="s">
+      <c r="M33" s="58"/>
+      <c r="N33" s="79" t="s">
         <v>406</v>
       </c>
       <c r="Q33" s="11"/>
-      <c r="U33" s="81" t="s">
+      <c r="U33" s="80" t="s">
         <v>1273</v>
       </c>
-      <c r="V33" s="82">
+      <c r="V33" s="81">
         <v>0</v>
       </c>
       <c r="W33" s="5">
@@ -7470,27 +7493,27 @@
       <c r="H34" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="J34" s="61" t="s">
+      <c r="J34" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="60" t="s">
         <v>1196</v>
       </c>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="61" t="s">
         <v>593</v>
       </c>
-      <c r="M34" s="63"/>
-      <c r="N34" s="83" t="s">
+      <c r="M34" s="62"/>
+      <c r="N34" s="82" t="s">
         <v>406</v>
       </c>
       <c r="Q34" s="44"/>
-      <c r="U34" s="84" t="s">
+      <c r="U34" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V34" s="85">
+      <c r="V34" s="84">
         <v>18</v>
       </c>
       <c r="W34" s="43">
@@ -7534,27 +7557,27 @@
       <c r="H35" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="I35" s="60" t="s">
+      <c r="I35" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="61" t="s">
+      <c r="J35" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="K35" s="61" t="s">
+      <c r="K35" s="60" t="s">
         <v>596</v>
       </c>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="61" t="s">
         <v>597</v>
       </c>
-      <c r="M35" s="63"/>
-      <c r="N35" s="83" t="s">
+      <c r="M35" s="62"/>
+      <c r="N35" s="82" t="s">
         <v>598</v>
       </c>
       <c r="Q35" s="44"/>
-      <c r="U35" s="84" t="s">
+      <c r="U35" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V35" s="85">
+      <c r="V35" s="84">
         <v>56</v>
       </c>
       <c r="W35" s="43">
@@ -7589,27 +7612,27 @@
       <c r="H36" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="61" t="s">
+      <c r="J36" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="L36" s="62" t="s">
+      <c r="L36" s="61" t="s">
         <v>472</v>
       </c>
-      <c r="M36" s="63"/>
-      <c r="N36" s="83" t="s">
+      <c r="M36" s="62"/>
+      <c r="N36" s="82" t="s">
         <v>406</v>
       </c>
       <c r="Q36" s="44"/>
-      <c r="U36" s="84" t="s">
+      <c r="U36" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V36" s="85">
+      <c r="V36" s="84">
         <v>34</v>
       </c>
       <c r="W36" s="43">
@@ -7639,30 +7662,30 @@
       <c r="H37" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="59" t="s">
         <v>1304</v>
       </c>
-      <c r="J37" s="61" t="s">
+      <c r="J37" s="60" t="s">
         <v>1305</v>
       </c>
-      <c r="K37" s="61" t="s">
+      <c r="K37" s="60" t="s">
         <v>1306</v>
       </c>
-      <c r="L37" s="62" t="s">
+      <c r="L37" s="61" t="s">
         <v>1307</v>
       </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="83" t="s">
+      <c r="M37" s="62"/>
+      <c r="N37" s="82" t="s">
         <v>1308</v>
       </c>
       <c r="Q37" s="44"/>
       <c r="S37" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="84" t="s">
+      <c r="U37" s="83" t="s">
         <v>1250</v>
       </c>
-      <c r="V37" s="85">
+      <c r="V37" s="84">
         <v>8</v>
       </c>
       <c r="W37" s="43">
@@ -7698,27 +7721,27 @@
       <c r="H38" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I38" s="56" t="s">
+      <c r="I38" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="56" t="s">
         <v>411</v>
       </c>
-      <c r="K38" s="57" t="s">
+      <c r="K38" s="56" t="s">
         <v>412</v>
       </c>
-      <c r="L38" s="58" t="s">
+      <c r="L38" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="M38" s="59"/>
-      <c r="N38" s="80" t="s">
+      <c r="M38" s="58"/>
+      <c r="N38" s="79" t="s">
         <v>413</v>
       </c>
       <c r="Q38" s="11"/>
-      <c r="U38" s="81" t="s">
+      <c r="U38" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V38" s="82">
+      <c r="V38" s="81">
         <v>59</v>
       </c>
       <c r="W38" s="5">
@@ -7754,27 +7777,27 @@
       <c r="H39" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I39" s="56" t="s">
+      <c r="I39" s="55" t="s">
         <v>1259</v>
       </c>
-      <c r="J39" s="57" t="s">
+      <c r="J39" s="56" t="s">
         <v>1260</v>
       </c>
-      <c r="K39" s="57" t="s">
+      <c r="K39" s="56" t="s">
         <v>1261</v>
       </c>
-      <c r="L39" s="58" t="s">
+      <c r="L39" s="57" t="s">
         <v>1262</v>
       </c>
-      <c r="M39" s="59"/>
-      <c r="N39" s="80" t="s">
+      <c r="M39" s="58"/>
+      <c r="N39" s="79" t="s">
         <v>602</v>
       </c>
       <c r="Q39" s="11"/>
-      <c r="U39" s="81" t="s">
+      <c r="U39" s="80" t="s">
         <v>1250</v>
       </c>
-      <c r="V39" s="82">
+      <c r="V39" s="81">
         <v>3</v>
       </c>
       <c r="W39" s="5">
@@ -7819,27 +7842,27 @@
       <c r="H40" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="I40" s="60" t="s">
+      <c r="I40" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="K40" s="61" t="s">
+      <c r="K40" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="L40" s="62" t="s">
+      <c r="L40" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="83" t="s">
+      <c r="M40" s="62"/>
+      <c r="N40" s="82" t="s">
         <v>602</v>
       </c>
       <c r="Q40" s="44"/>
-      <c r="U40" s="84" t="s">
+      <c r="U40" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V40" s="85">
+      <c r="V40" s="84">
         <v>11</v>
       </c>
       <c r="W40" s="43">
@@ -7878,27 +7901,27 @@
       <c r="H41" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="K41" s="57" t="s">
+      <c r="K41" s="56" t="s">
         <v>419</v>
       </c>
-      <c r="L41" s="58" t="s">
+      <c r="L41" s="57" t="s">
         <v>416</v>
       </c>
-      <c r="M41" s="59"/>
-      <c r="N41" s="80" t="s">
+      <c r="M41" s="58"/>
+      <c r="N41" s="79" t="s">
         <v>420</v>
       </c>
       <c r="Q41" s="11"/>
-      <c r="U41" s="81" t="s">
+      <c r="U41" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V41" s="82">
+      <c r="V41" s="81">
         <v>51</v>
       </c>
       <c r="W41" s="5">
@@ -7942,27 +7965,27 @@
       <c r="H42" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="I42" s="60" t="s">
+      <c r="I42" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="J42" s="61" t="s">
+      <c r="J42" s="60" t="s">
         <v>603</v>
       </c>
-      <c r="K42" s="61" t="s">
+      <c r="K42" s="60" t="s">
         <v>604</v>
       </c>
-      <c r="L42" s="62" t="s">
+      <c r="L42" s="61" t="s">
         <v>605</v>
       </c>
-      <c r="M42" s="63"/>
-      <c r="N42" s="83" t="s">
+      <c r="M42" s="62"/>
+      <c r="N42" s="82" t="s">
         <v>606</v>
       </c>
       <c r="Q42" s="44"/>
-      <c r="U42" s="84" t="s">
+      <c r="U42" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V42" s="85">
+      <c r="V42" s="84">
         <v>13</v>
       </c>
       <c r="W42" s="43">
@@ -8006,27 +8029,27 @@
       <c r="H43" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="I43" s="60" t="s">
+      <c r="I43" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="J43" s="61" t="s">
+      <c r="J43" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="K43" s="61" t="s">
+      <c r="K43" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="L43" s="62" t="s">
+      <c r="L43" s="61" t="s">
         <v>610</v>
       </c>
-      <c r="M43" s="63"/>
-      <c r="N43" s="83" t="s">
+      <c r="M43" s="62"/>
+      <c r="N43" s="82" t="s">
         <v>611</v>
       </c>
       <c r="Q43" s="44"/>
-      <c r="U43" s="84" t="s">
+      <c r="U43" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V43" s="85">
+      <c r="V43" s="84">
         <v>14</v>
       </c>
       <c r="W43" s="43">
@@ -8070,27 +8093,27 @@
       <c r="H44" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="J44" s="61" t="s">
+      <c r="J44" s="60" t="s">
         <v>612</v>
       </c>
-      <c r="K44" s="61" t="s">
+      <c r="K44" s="60" t="s">
         <v>613</v>
       </c>
-      <c r="L44" s="62" t="s">
+      <c r="L44" s="61" t="s">
         <v>614</v>
       </c>
-      <c r="M44" s="63"/>
-      <c r="N44" s="83" t="s">
+      <c r="M44" s="62"/>
+      <c r="N44" s="82" t="s">
         <v>615</v>
       </c>
       <c r="Q44" s="44"/>
-      <c r="U44" s="84" t="s">
+      <c r="U44" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V44" s="85">
+      <c r="V44" s="84">
         <v>15</v>
       </c>
       <c r="W44" s="43">
@@ -8128,27 +8151,27 @@
       <c r="H45" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="61" t="s">
+      <c r="J45" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="K45" s="61" t="s">
+      <c r="K45" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="L45" s="62" t="s">
+      <c r="L45" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="M45" s="63"/>
-      <c r="N45" s="83" t="s">
+      <c r="M45" s="62"/>
+      <c r="N45" s="82" t="s">
         <v>477</v>
       </c>
       <c r="Q45" s="44"/>
-      <c r="U45" s="84" t="s">
+      <c r="U45" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V45" s="85">
+      <c r="V45" s="84">
         <v>42</v>
       </c>
       <c r="W45" s="43">
@@ -8184,25 +8207,25 @@
       <c r="H46" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="55" t="s">
         <v>952</v>
       </c>
-      <c r="J46" s="57" t="s">
+      <c r="J46" s="56" t="s">
         <v>953</v>
       </c>
-      <c r="K46" s="57" t="s">
+      <c r="K46" s="56" t="s">
         <v>954</v>
       </c>
-      <c r="L46" s="58"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="80" t="s">
+      <c r="L46" s="57"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="79" t="s">
         <v>521</v>
       </c>
       <c r="Q46" s="11"/>
-      <c r="U46" s="81" t="s">
+      <c r="U46" s="80" t="s">
         <v>955</v>
       </c>
-      <c r="V46" s="82">
+      <c r="V46" s="81">
         <v>7</v>
       </c>
       <c r="W46" s="5">
@@ -8244,25 +8267,25 @@
       <c r="H47" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="I47" s="60" t="s">
+      <c r="I47" s="59" t="s">
         <v>997</v>
       </c>
-      <c r="J47" s="61" t="s">
+      <c r="J47" s="60" t="s">
         <v>998</v>
       </c>
-      <c r="K47" s="61" t="s">
+      <c r="K47" s="60" t="s">
         <v>999</v>
       </c>
-      <c r="L47" s="62"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="83" t="s">
+      <c r="L47" s="61"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="82" t="s">
         <v>521</v>
       </c>
       <c r="Q47" s="44"/>
-      <c r="U47" s="84" t="s">
+      <c r="U47" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V47" s="85">
+      <c r="V47" s="84">
         <v>9</v>
       </c>
       <c r="W47" s="43">
@@ -8301,27 +8324,27 @@
       <c r="H48" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="J48" s="57" t="s">
+      <c r="J48" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="K48" s="57" t="s">
+      <c r="K48" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="L48" s="58" t="s">
+      <c r="L48" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="M48" s="59"/>
-      <c r="N48" s="80" t="s">
+      <c r="M48" s="58"/>
+      <c r="N48" s="79" t="s">
         <v>428</v>
       </c>
       <c r="Q48" s="11"/>
-      <c r="U48" s="81" t="s">
+      <c r="U48" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V48" s="82">
+      <c r="V48" s="81">
         <v>60</v>
       </c>
       <c r="W48" s="5">
@@ -8357,27 +8380,27 @@
       <c r="H49" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="I49" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="J49" s="57" t="s">
+      <c r="J49" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="K49" s="57" t="s">
+      <c r="K49" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="L49" s="58" t="s">
+      <c r="L49" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="M49" s="59"/>
-      <c r="N49" s="80" t="s">
+      <c r="M49" s="58"/>
+      <c r="N49" s="79" t="s">
         <v>435</v>
       </c>
       <c r="Q49" s="11"/>
-      <c r="U49" s="81" t="s">
+      <c r="U49" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="V49" s="82">
+      <c r="V49" s="81">
         <v>55</v>
       </c>
       <c r="W49" s="5">
@@ -8419,25 +8442,25 @@
       <c r="H50" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="I50" s="60" t="s">
+      <c r="I50" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="J50" s="61" t="s">
+      <c r="J50" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="K50" s="61" t="s">
+      <c r="K50" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="83" t="s">
+      <c r="L50" s="61"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="82" t="s">
         <v>521</v>
       </c>
       <c r="Q50" s="44"/>
-      <c r="U50" s="84" t="s">
+      <c r="U50" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V50" s="85">
+      <c r="V50" s="84">
         <v>37</v>
       </c>
       <c r="W50" s="43">
@@ -8470,27 +8493,27 @@
       <c r="F51" s="43">
         <v>150</v>
       </c>
-      <c r="I51" s="60" t="s">
+      <c r="I51" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="J51" s="61" t="s">
+      <c r="J51" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="K51" s="61" t="s">
+      <c r="K51" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="L51" s="62" t="s">
+      <c r="L51" s="61" t="s">
         <v>482</v>
       </c>
-      <c r="M51" s="63"/>
-      <c r="N51" s="83" t="s">
+      <c r="M51" s="62"/>
+      <c r="N51" s="82" t="s">
         <v>483</v>
       </c>
       <c r="Q51" s="44"/>
-      <c r="U51" s="84" t="s">
+      <c r="U51" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V51" s="85">
+      <c r="V51" s="84">
         <v>38</v>
       </c>
       <c r="W51" s="43">
@@ -8520,25 +8543,25 @@
       <c r="F52" s="43">
         <v>200</v>
       </c>
-      <c r="I52" s="60" t="s">
+      <c r="I52" s="59" t="s">
         <v>1120</v>
       </c>
-      <c r="J52" s="61" t="s">
+      <c r="J52" s="60" t="s">
         <v>1121</v>
       </c>
-      <c r="K52" s="61" t="s">
+      <c r="K52" s="60" t="s">
         <v>1122</v>
       </c>
-      <c r="L52" s="62"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="83" t="s">
+      <c r="L52" s="61"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="82" t="s">
         <v>521</v>
       </c>
       <c r="Q52" s="44"/>
-      <c r="U52" s="84" t="s">
+      <c r="U52" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V52" s="85">
+      <c r="V52" s="84">
         <v>2</v>
       </c>
       <c r="W52" s="43">
@@ -8577,25 +8600,25 @@
       <c r="F53" s="43">
         <v>200</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="59" t="s">
         <v>1124</v>
       </c>
-      <c r="J53" s="61" t="s">
+      <c r="J53" s="60" t="s">
         <v>1125</v>
       </c>
-      <c r="K53" s="61" t="s">
+      <c r="K53" s="60" t="s">
         <v>1126</v>
       </c>
-      <c r="L53" s="62"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="83" t="s">
+      <c r="L53" s="61"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="82" t="s">
         <v>521</v>
       </c>
       <c r="Q53" s="44"/>
-      <c r="U53" s="84" t="s">
+      <c r="U53" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V53" s="85">
+      <c r="V53" s="84">
         <v>5</v>
       </c>
       <c r="W53" s="43">
@@ -8628,25 +8651,25 @@
       <c r="F54" s="43">
         <v>200</v>
       </c>
-      <c r="I54" s="60" t="s">
+      <c r="I54" s="59" t="s">
         <v>1129</v>
       </c>
-      <c r="J54" s="61" t="s">
+      <c r="J54" s="60" t="s">
         <v>1130</v>
       </c>
-      <c r="K54" s="61" t="s">
+      <c r="K54" s="60" t="s">
         <v>1131</v>
       </c>
-      <c r="L54" s="62"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="83" t="s">
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="82" t="s">
         <v>521</v>
       </c>
       <c r="Q54" s="44"/>
-      <c r="U54" s="84" t="s">
+      <c r="U54" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V54" s="85">
+      <c r="V54" s="84">
         <v>6</v>
       </c>
       <c r="W54" s="43">
@@ -8682,30 +8705,30 @@
       <c r="H55" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="I55" s="60" t="s">
+      <c r="I55" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="J55" s="61" t="s">
+      <c r="J55" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="K55" s="61" t="s">
+      <c r="K55" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="L55" s="62" t="s">
+      <c r="L55" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="M55" s="63"/>
-      <c r="N55" s="83" t="s">
+      <c r="M55" s="62"/>
+      <c r="N55" s="82" t="s">
         <v>493</v>
       </c>
       <c r="Q55" s="44"/>
       <c r="S55" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U55" s="84" t="s">
+      <c r="U55" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V55" s="85">
+      <c r="V55" s="84">
         <v>36</v>
       </c>
       <c r="W55" s="43">
@@ -8747,30 +8770,30 @@
       <c r="H56" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="I56" s="60" t="s">
+      <c r="I56" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="J56" s="61" t="s">
+      <c r="J56" s="60" t="s">
         <v>495</v>
       </c>
-      <c r="K56" s="61" t="s">
+      <c r="K56" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="L56" s="62" t="s">
+      <c r="L56" s="61" t="s">
         <v>497</v>
       </c>
-      <c r="M56" s="63"/>
-      <c r="N56" s="83" t="s">
+      <c r="M56" s="62"/>
+      <c r="N56" s="82" t="s">
         <v>498</v>
       </c>
       <c r="Q56" s="44"/>
       <c r="S56" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U56" s="84" t="s">
+      <c r="U56" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V56" s="85">
+      <c r="V56" s="84">
         <v>26</v>
       </c>
       <c r="W56" s="43">
@@ -8818,27 +8841,27 @@
       <c r="H57" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="61" t="s">
+      <c r="J57" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="61" t="s">
+      <c r="K57" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="L57" s="62" t="s">
+      <c r="L57" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="M57" s="63"/>
-      <c r="N57" s="83" t="s">
+      <c r="M57" s="62"/>
+      <c r="N57" s="82" t="s">
         <v>440</v>
       </c>
       <c r="Q57" s="44"/>
-      <c r="U57" s="84" t="s">
+      <c r="U57" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V57" s="85">
+      <c r="V57" s="84">
         <v>48</v>
       </c>
       <c r="W57" s="43">
@@ -8874,27 +8897,27 @@
       <c r="H58" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="I58" s="56" t="s">
+      <c r="I58" s="55" t="s">
         <v>1264</v>
       </c>
-      <c r="J58" s="57" t="s">
+      <c r="J58" s="56" t="s">
         <v>1265</v>
       </c>
-      <c r="K58" s="57" t="s">
+      <c r="K58" s="56" t="s">
         <v>1266</v>
       </c>
-      <c r="L58" s="58" t="s">
+      <c r="L58" s="57" t="s">
         <v>1267</v>
       </c>
-      <c r="M58" s="59"/>
-      <c r="N58" s="80" t="s">
+      <c r="M58" s="58"/>
+      <c r="N58" s="79" t="s">
         <v>487</v>
       </c>
       <c r="Q58" s="11"/>
-      <c r="U58" s="81" t="s">
+      <c r="U58" s="80" t="s">
         <v>1250</v>
       </c>
-      <c r="V58" s="82">
+      <c r="V58" s="81">
         <v>0</v>
       </c>
       <c r="W58" s="5">
@@ -8930,27 +8953,27 @@
       <c r="H59" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="I59" s="60" t="s">
+      <c r="I59" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="61" t="s">
+      <c r="J59" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="K59" s="61" t="s">
+      <c r="K59" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="L59" s="62" t="s">
+      <c r="L59" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="M59" s="63"/>
-      <c r="N59" s="83" t="s">
+      <c r="M59" s="62"/>
+      <c r="N59" s="82" t="s">
         <v>487</v>
       </c>
       <c r="Q59" s="44"/>
-      <c r="U59" s="84" t="s">
+      <c r="U59" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V59" s="85">
+      <c r="V59" s="84">
         <v>24</v>
       </c>
       <c r="W59" s="43">
@@ -8989,30 +9012,30 @@
       <c r="H60" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="I60" s="60" t="s">
+      <c r="I60" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="J60" s="61" t="s">
+      <c r="J60" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="K60" s="61" t="s">
+      <c r="K60" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="L60" s="62" t="s">
+      <c r="L60" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="M60" s="63"/>
-      <c r="N60" s="83" t="s">
+      <c r="M60" s="62"/>
+      <c r="N60" s="82" t="s">
         <v>502</v>
       </c>
       <c r="Q60" s="44"/>
       <c r="R60" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U60" s="84" t="s">
+      <c r="U60" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V60" s="85">
+      <c r="V60" s="84">
         <v>23</v>
       </c>
       <c r="W60" s="43">
@@ -9054,27 +9077,27 @@
       <c r="H61" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="61" t="s">
+      <c r="J61" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="K61" s="61" t="s">
+      <c r="K61" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="L61" s="62" t="s">
+      <c r="L61" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="M61" s="63"/>
-      <c r="N61" s="83" t="s">
+      <c r="M61" s="62"/>
+      <c r="N61" s="82" t="s">
         <v>507</v>
       </c>
       <c r="Q61" s="44"/>
-      <c r="U61" s="84" t="s">
+      <c r="U61" s="83" t="s">
         <v>1191</v>
       </c>
-      <c r="V61" s="85">
+      <c r="V61" s="84">
         <v>0</v>
       </c>
       <c r="W61" s="43">
@@ -9113,30 +9136,30 @@
       <c r="H62" s="43" t="s">
         <v>978</v>
       </c>
-      <c r="I62" s="60" t="s">
+      <c r="I62" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="J62" s="61" t="s">
+      <c r="J62" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="K62" s="61" t="s">
+      <c r="K62" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="L62" s="62" t="s">
+      <c r="L62" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="M62" s="63"/>
-      <c r="N62" s="83" t="s">
+      <c r="M62" s="62"/>
+      <c r="N62" s="82" t="s">
         <v>512</v>
       </c>
       <c r="Q62" s="44"/>
       <c r="T62" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="84" t="s">
+      <c r="U62" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V62" s="85">
+      <c r="V62" s="84">
         <v>25</v>
       </c>
       <c r="W62" s="43">
@@ -9172,25 +9195,25 @@
       <c r="G63" s="5">
         <v>1</v>
       </c>
-      <c r="I63" s="56" t="s">
+      <c r="I63" s="55" t="s">
         <v>1142</v>
       </c>
-      <c r="J63" s="57" t="s">
+      <c r="J63" s="56" t="s">
         <v>1143</v>
       </c>
-      <c r="K63" s="57" t="s">
+      <c r="K63" s="56" t="s">
         <v>1144</v>
       </c>
-      <c r="L63" s="58"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="80" t="s">
+      <c r="L63" s="57"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="79" t="s">
         <v>517</v>
       </c>
       <c r="Q63" s="11"/>
-      <c r="U63" s="81" t="s">
+      <c r="U63" s="80" t="s">
         <v>955</v>
       </c>
-      <c r="V63" s="82">
+      <c r="V63" s="81">
         <v>10</v>
       </c>
       <c r="W63" s="5">
@@ -9223,27 +9246,27 @@
       <c r="G64" s="43">
         <v>1</v>
       </c>
-      <c r="I64" s="60" t="s">
+      <c r="I64" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="J64" s="61" t="s">
+      <c r="J64" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="L64" s="62" t="s">
+      <c r="L64" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="M64" s="63"/>
-      <c r="N64" s="83" t="s">
+      <c r="M64" s="62"/>
+      <c r="N64" s="82" t="s">
         <v>517</v>
       </c>
       <c r="Q64" s="44"/>
-      <c r="U64" s="84" t="s">
+      <c r="U64" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V64" s="85">
+      <c r="V64" s="84">
         <v>21</v>
       </c>
       <c r="W64" s="43">
@@ -9279,25 +9302,25 @@
       <c r="H65" s="43" t="s">
         <v>982</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I65" s="59" t="s">
         <v>993</v>
       </c>
-      <c r="J65" s="61" t="s">
+      <c r="J65" s="60" t="s">
         <v>994</v>
       </c>
-      <c r="K65" s="61" t="s">
+      <c r="K65" s="60" t="s">
         <v>995</v>
       </c>
-      <c r="L65" s="62"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="83" t="s">
+      <c r="L65" s="61"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="82" t="s">
         <v>502</v>
       </c>
       <c r="Q65" s="44"/>
-      <c r="U65" s="84" t="s">
+      <c r="U65" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V65" s="85">
+      <c r="V65" s="84">
         <v>0</v>
       </c>
       <c r="W65" s="43">
@@ -9339,25 +9362,25 @@
       <c r="H66" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="I66" s="56" t="s">
+      <c r="I66" s="55" t="s">
         <v>1133</v>
       </c>
-      <c r="J66" s="57" t="s">
+      <c r="J66" s="56" t="s">
         <v>1134</v>
       </c>
-      <c r="K66" s="57" t="s">
+      <c r="K66" s="56" t="s">
         <v>1135</v>
       </c>
-      <c r="L66" s="58"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="80" t="s">
+      <c r="L66" s="57"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="79" t="s">
         <v>525</v>
       </c>
       <c r="Q66" s="11"/>
-      <c r="U66" s="81" t="s">
+      <c r="U66" s="80" t="s">
         <v>955</v>
       </c>
-      <c r="V66" s="82">
+      <c r="V66" s="81">
         <v>3</v>
       </c>
       <c r="W66" s="5">
@@ -9399,25 +9422,25 @@
       <c r="H67" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="I67" s="60" t="s">
+      <c r="I67" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J67" s="61" t="s">
+      <c r="J67" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="K67" s="61" t="s">
+      <c r="K67" s="60" t="s">
         <v>524</v>
       </c>
-      <c r="L67" s="62"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="83" t="s">
+      <c r="L67" s="61"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="82" t="s">
         <v>525</v>
       </c>
       <c r="Q67" s="44"/>
-      <c r="U67" s="84" t="s">
+      <c r="U67" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V67" s="85">
+      <c r="V67" s="84">
         <v>49</v>
       </c>
       <c r="W67" s="43">
@@ -9456,25 +9479,25 @@
       <c r="H68" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="I68" s="60" t="s">
+      <c r="I68" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="61" t="s">
+      <c r="J68" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="K68" s="61" t="s">
+      <c r="K68" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="L68" s="62"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="83" t="s">
+      <c r="L68" s="61"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="82" t="s">
         <v>529</v>
       </c>
       <c r="Q68" s="44"/>
-      <c r="U68" s="84" t="s">
+      <c r="U68" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V68" s="85">
+      <c r="V68" s="84">
         <v>22</v>
       </c>
       <c r="W68" s="43">
@@ -9516,27 +9539,27 @@
       <c r="H69" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="I69" s="60" t="s">
+      <c r="I69" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J69" s="61" t="s">
+      <c r="J69" s="60" t="s">
         <v>532</v>
       </c>
-      <c r="K69" s="61" t="s">
+      <c r="K69" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="L69" s="62" t="s">
+      <c r="L69" s="61" t="s">
         <v>531</v>
       </c>
-      <c r="M69" s="63"/>
-      <c r="N69" s="83" t="s">
+      <c r="M69" s="62"/>
+      <c r="N69" s="82" t="s">
         <v>534</v>
       </c>
       <c r="Q69" s="44"/>
-      <c r="U69" s="84" t="s">
+      <c r="U69" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V69" s="85">
+      <c r="V69" s="84">
         <v>35</v>
       </c>
       <c r="W69" s="43">
@@ -9578,27 +9601,27 @@
       <c r="H70" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="I70" s="60" t="s">
+      <c r="I70" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="61" t="s">
+      <c r="J70" s="60" t="s">
         <v>450</v>
       </c>
-      <c r="K70" s="61" t="s">
+      <c r="K70" s="60" t="s">
         <v>451</v>
       </c>
-      <c r="L70" s="62" t="s">
+      <c r="L70" s="61" t="s">
         <v>452</v>
       </c>
-      <c r="M70" s="63"/>
-      <c r="N70" s="83" t="s">
+      <c r="M70" s="62"/>
+      <c r="N70" s="82" t="s">
         <v>453</v>
       </c>
       <c r="Q70" s="44"/>
-      <c r="U70" s="84" t="s">
+      <c r="U70" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V70" s="85">
+      <c r="V70" s="84">
         <v>44</v>
       </c>
       <c r="W70" s="43">
@@ -9634,27 +9657,27 @@
       <c r="H71" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="I71" s="60" t="s">
+      <c r="I71" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J71" s="61" t="s">
+      <c r="J71" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="K71" s="61" t="s">
+      <c r="K71" s="60" t="s">
         <v>564</v>
       </c>
-      <c r="L71" s="62" t="s">
+      <c r="L71" s="61" t="s">
         <v>565</v>
       </c>
-      <c r="M71" s="63"/>
-      <c r="N71" s="83" t="s">
+      <c r="M71" s="62"/>
+      <c r="N71" s="82" t="s">
         <v>566</v>
       </c>
       <c r="Q71" s="44"/>
-      <c r="U71" s="84" t="s">
+      <c r="U71" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V71" s="85">
+      <c r="V71" s="84">
         <v>0</v>
       </c>
       <c r="W71" s="43">
@@ -9693,27 +9716,27 @@
       <c r="H72" s="43" t="s">
         <v>567</v>
       </c>
-      <c r="I72" s="60" t="s">
+      <c r="I72" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J72" s="61" t="s">
+      <c r="J72" s="60" t="s">
         <v>568</v>
       </c>
-      <c r="K72" s="61" t="s">
+      <c r="K72" s="60" t="s">
         <v>569</v>
       </c>
-      <c r="L72" s="62" t="s">
+      <c r="L72" s="61" t="s">
         <v>569</v>
       </c>
-      <c r="M72" s="63"/>
-      <c r="N72" s="83" t="s">
+      <c r="M72" s="62"/>
+      <c r="N72" s="82" t="s">
         <v>570</v>
       </c>
       <c r="Q72" s="44"/>
-      <c r="U72" s="84" t="s">
+      <c r="U72" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V72" s="85">
+      <c r="V72" s="84">
         <v>45</v>
       </c>
       <c r="W72" s="43">
@@ -9746,27 +9769,27 @@
       <c r="H73" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="I73" s="60" t="s">
+      <c r="I73" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J73" s="61" t="s">
+      <c r="J73" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="K73" s="61" t="s">
+      <c r="K73" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="L73" s="62" t="s">
+      <c r="L73" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="M73" s="63"/>
-      <c r="N73" s="83" t="s">
+      <c r="M73" s="62"/>
+      <c r="N73" s="82" t="s">
         <v>575</v>
       </c>
       <c r="Q73" s="44"/>
-      <c r="U73" s="84" t="s">
+      <c r="U73" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="V73" s="85">
+      <c r="V73" s="84">
         <v>62</v>
       </c>
       <c r="W73" s="43">
@@ -9802,27 +9825,27 @@
       <c r="H74" s="43" t="s">
         <v>823</v>
       </c>
-      <c r="I74" s="60" t="s">
+      <c r="I74" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="J74" s="61" t="s">
+      <c r="J74" s="60" t="s">
         <v>824</v>
       </c>
-      <c r="K74" s="61" t="s">
+      <c r="K74" s="60" t="s">
         <v>825</v>
       </c>
-      <c r="L74" s="62" t="s">
+      <c r="L74" s="61" t="s">
         <v>826</v>
       </c>
-      <c r="M74" s="63"/>
-      <c r="N74" s="83" t="s">
+      <c r="M74" s="62"/>
+      <c r="N74" s="82" t="s">
         <v>570</v>
       </c>
       <c r="Q74" s="44"/>
-      <c r="U74" s="84" t="s">
+      <c r="U74" s="83" t="s">
         <v>827</v>
       </c>
-      <c r="V74" s="85">
+      <c r="V74" s="84">
         <v>0</v>
       </c>
       <c r="W74" s="43">
@@ -9858,27 +9881,27 @@
       <c r="H75" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="I75" s="60" t="s">
+      <c r="I75" s="59" t="s">
         <v>1015</v>
       </c>
-      <c r="J75" s="61" t="s">
+      <c r="J75" s="60" t="s">
         <v>1016</v>
       </c>
-      <c r="K75" s="61" t="s">
+      <c r="K75" s="60" t="s">
         <v>1017</v>
       </c>
-      <c r="L75" s="62" t="s">
+      <c r="L75" s="61" t="s">
         <v>1018</v>
       </c>
-      <c r="M75" s="63"/>
-      <c r="N75" s="83" t="s">
+      <c r="M75" s="62"/>
+      <c r="N75" s="82" t="s">
         <v>502</v>
       </c>
       <c r="Q75" s="44"/>
-      <c r="U75" s="84" t="s">
+      <c r="U75" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V75" s="85">
+      <c r="V75" s="84">
         <v>12</v>
       </c>
       <c r="W75" s="43">
@@ -9917,27 +9940,27 @@
       <c r="H76" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="I76" s="59" t="s">
         <v>1021</v>
       </c>
-      <c r="J76" s="61" t="s">
+      <c r="J76" s="60" t="s">
         <v>1022</v>
       </c>
-      <c r="K76" s="61" t="s">
+      <c r="K76" s="60" t="s">
         <v>1023</v>
       </c>
-      <c r="L76" s="62" t="s">
+      <c r="L76" s="61" t="s">
         <v>1024</v>
       </c>
-      <c r="M76" s="63"/>
-      <c r="N76" s="83" t="s">
+      <c r="M76" s="62"/>
+      <c r="N76" s="82" t="s">
         <v>502</v>
       </c>
       <c r="Q76" s="44"/>
-      <c r="U76" s="84" t="s">
+      <c r="U76" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V76" s="85">
+      <c r="V76" s="84">
         <v>11</v>
       </c>
       <c r="W76" s="43">
@@ -9973,27 +9996,27 @@
       <c r="H77" s="43" t="s">
         <v>978</v>
       </c>
-      <c r="I77" s="60" t="s">
+      <c r="I77" s="59" t="s">
         <v>1297</v>
       </c>
-      <c r="J77" s="61" t="s">
+      <c r="J77" s="60" t="s">
         <v>1298</v>
       </c>
-      <c r="K77" s="61" t="s">
+      <c r="K77" s="60" t="s">
         <v>1299</v>
       </c>
-      <c r="L77" s="62" t="s">
+      <c r="L77" s="61" t="s">
         <v>1300</v>
       </c>
-      <c r="M77" s="63"/>
-      <c r="N77" s="83" t="s">
+      <c r="M77" s="62"/>
+      <c r="N77" s="82" t="s">
         <v>1301</v>
       </c>
       <c r="Q77" s="44"/>
-      <c r="U77" s="84" t="s">
+      <c r="U77" s="83" t="s">
         <v>1250</v>
       </c>
-      <c r="V77" s="85">
+      <c r="V77" s="84">
         <v>9</v>
       </c>
       <c r="W77" s="43">
@@ -10029,27 +10052,27 @@
       <c r="H78" s="43" t="s">
         <v>1311</v>
       </c>
-      <c r="I78" s="60" t="s">
+      <c r="I78" s="59" t="s">
         <v>1312</v>
       </c>
-      <c r="J78" s="61" t="s">
+      <c r="J78" s="60" t="s">
         <v>1313</v>
       </c>
-      <c r="K78" s="61" t="s">
+      <c r="K78" s="60" t="s">
         <v>1314</v>
       </c>
-      <c r="L78" s="62" t="s">
+      <c r="L78" s="61" t="s">
         <v>1315</v>
       </c>
-      <c r="M78" s="63"/>
-      <c r="N78" s="83" t="s">
+      <c r="M78" s="62"/>
+      <c r="N78" s="82" t="s">
         <v>1316</v>
       </c>
       <c r="Q78" s="44"/>
-      <c r="U78" s="84" t="s">
+      <c r="U78" s="83" t="s">
         <v>1250</v>
       </c>
-      <c r="V78" s="85">
+      <c r="V78" s="84">
         <v>4</v>
       </c>
       <c r="W78" s="43">
@@ -10091,27 +10114,27 @@
       <c r="H79" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="I79" s="60" t="s">
+      <c r="I79" s="59" t="s">
         <v>1002</v>
       </c>
-      <c r="J79" s="61" t="s">
+      <c r="J79" s="60" t="s">
         <v>1003</v>
       </c>
-      <c r="K79" s="61" t="s">
+      <c r="K79" s="60" t="s">
         <v>1005</v>
       </c>
-      <c r="L79" s="62" t="s">
+      <c r="L79" s="61" t="s">
         <v>1004</v>
       </c>
-      <c r="M79" s="63"/>
-      <c r="N79" s="83" t="s">
+      <c r="M79" s="62"/>
+      <c r="N79" s="82" t="s">
         <v>465</v>
       </c>
       <c r="Q79" s="44"/>
-      <c r="U79" s="84" t="s">
+      <c r="U79" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V79" s="85">
+      <c r="V79" s="84">
         <v>8</v>
       </c>
       <c r="W79" s="43">
@@ -10144,27 +10167,27 @@
       <c r="H80" s="43" t="s">
         <v>1008</v>
       </c>
-      <c r="I80" s="60" t="s">
+      <c r="I80" s="59" t="s">
         <v>1009</v>
       </c>
-      <c r="J80" s="61" t="s">
+      <c r="J80" s="60" t="s">
         <v>1010</v>
       </c>
-      <c r="K80" s="61" t="s">
+      <c r="K80" s="60" t="s">
         <v>1011</v>
       </c>
-      <c r="L80" s="62" t="s">
+      <c r="L80" s="61" t="s">
         <v>1012</v>
       </c>
-      <c r="M80" s="63"/>
-      <c r="N80" s="83" t="s">
+      <c r="M80" s="62"/>
+      <c r="N80" s="82" t="s">
         <v>465</v>
       </c>
       <c r="Q80" s="44"/>
-      <c r="U80" s="84" t="s">
+      <c r="U80" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="V80" s="85">
+      <c r="V80" s="84">
         <v>1</v>
       </c>
       <c r="W80" s="43">
@@ -10194,30 +10217,30 @@
       <c r="E81" s="6">
         <v>0</v>
       </c>
-      <c r="I81" s="64" t="s">
+      <c r="I81" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="J81" s="65" t="s">
+      <c r="J81" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="K81" s="65" t="s">
+      <c r="K81" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="L81" s="66" t="s">
+      <c r="L81" s="65" t="s">
         <v>618</v>
       </c>
-      <c r="M81" s="67"/>
-      <c r="N81" s="86" t="s">
+      <c r="M81" s="66"/>
+      <c r="N81" s="85" t="s">
         <v>619</v>
       </c>
       <c r="Q81" s="12"/>
       <c r="R81" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U81" s="87" t="s">
+      <c r="U81" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="V81" s="88">
+      <c r="V81" s="87">
         <v>19</v>
       </c>
       <c r="W81" s="6">
@@ -10262,27 +10285,27 @@
       <c r="H82" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="I82" s="64" t="s">
+      <c r="I82" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="J82" s="65" t="s">
+      <c r="J82" s="64" t="s">
         <v>621</v>
       </c>
-      <c r="K82" s="65" t="s">
+      <c r="K82" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="L82" s="66" t="s">
+      <c r="L82" s="65" t="s">
         <v>623</v>
       </c>
-      <c r="M82" s="67"/>
-      <c r="N82" s="86" t="s">
+      <c r="M82" s="66"/>
+      <c r="N82" s="85" t="s">
         <v>624</v>
       </c>
       <c r="Q82" s="12"/>
-      <c r="U82" s="87" t="s">
+      <c r="U82" s="86" t="s">
         <v>626</v>
       </c>
-      <c r="V82" s="88">
+      <c r="V82" s="87">
         <v>31</v>
       </c>
       <c r="W82" s="6">
@@ -10327,27 +10350,27 @@
       <c r="H83" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="I83" s="64" t="s">
+      <c r="I83" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="J83" s="65" t="s">
+      <c r="J83" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="K83" s="65" t="s">
+      <c r="K83" s="64" t="s">
         <v>628</v>
       </c>
-      <c r="L83" s="66" t="s">
+      <c r="L83" s="65" t="s">
         <v>629</v>
       </c>
-      <c r="M83" s="67"/>
-      <c r="N83" s="86" t="s">
+      <c r="M83" s="66"/>
+      <c r="N83" s="85" t="s">
         <v>630</v>
       </c>
       <c r="Q83" s="12"/>
-      <c r="U83" s="87" t="s">
+      <c r="U83" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="V83" s="88">
+      <c r="V83" s="87">
         <v>46</v>
       </c>
       <c r="W83" s="6">
@@ -10383,27 +10406,27 @@
       <c r="H84" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="I84" s="64" t="s">
+      <c r="I84" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="J84" s="65" t="s">
+      <c r="J84" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="K84" s="65" t="s">
+      <c r="K84" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="L84" s="66" t="s">
+      <c r="L84" s="65" t="s">
         <v>633</v>
       </c>
-      <c r="M84" s="67"/>
-      <c r="N84" s="86" t="s">
+      <c r="M84" s="66"/>
+      <c r="N84" s="85" t="s">
         <v>634</v>
       </c>
       <c r="Q84" s="12"/>
-      <c r="U84" s="87" t="s">
+      <c r="U84" s="86" t="s">
         <v>626</v>
       </c>
-      <c r="V84" s="88">
+      <c r="V84" s="87">
         <v>32</v>
       </c>
       <c r="W84" s="6">
@@ -10448,27 +10471,27 @@
       <c r="H85" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="I85" s="64" t="s">
+      <c r="I85" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="J85" s="65" t="s">
+      <c r="J85" s="64" t="s">
         <v>635</v>
       </c>
-      <c r="K85" s="65" t="s">
+      <c r="K85" s="64" t="s">
         <v>636</v>
       </c>
-      <c r="L85" s="66" t="s">
+      <c r="L85" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="M85" s="67"/>
-      <c r="N85" s="86" t="s">
+      <c r="M85" s="66"/>
+      <c r="N85" s="85" t="s">
         <v>638</v>
       </c>
       <c r="Q85" s="12"/>
-      <c r="U85" s="87" t="s">
+      <c r="U85" s="86" t="s">
         <v>639</v>
       </c>
-      <c r="V85" s="88">
+      <c r="V85" s="87">
         <v>0</v>
       </c>
       <c r="W85" s="6">
@@ -10507,27 +10530,27 @@
       <c r="H86" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="I86" s="64" t="s">
+      <c r="I86" s="63" t="s">
         <v>1198</v>
       </c>
-      <c r="J86" s="65" t="s">
+      <c r="J86" s="64" t="s">
         <v>1199</v>
       </c>
-      <c r="K86" s="65" t="s">
+      <c r="K86" s="64" t="s">
         <v>1200</v>
       </c>
-      <c r="L86" s="66" t="s">
+      <c r="L86" s="65" t="s">
         <v>640</v>
       </c>
-      <c r="M86" s="67"/>
-      <c r="N86" s="86" t="s">
+      <c r="M86" s="66"/>
+      <c r="N86" s="85" t="s">
         <v>641</v>
       </c>
       <c r="Q86" s="12"/>
-      <c r="U86" s="87" t="s">
+      <c r="U86" s="86" t="s">
         <v>1201</v>
       </c>
-      <c r="V86" s="88">
+      <c r="V86" s="87">
         <v>0</v>
       </c>
       <c r="W86" s="6">
@@ -10569,27 +10592,27 @@
       <c r="H87" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="I87" s="64" t="s">
+      <c r="I87" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="J87" s="65" t="s">
+      <c r="J87" s="64" t="s">
         <v>642</v>
       </c>
-      <c r="K87" s="65" t="s">
+      <c r="K87" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="L87" s="66" t="s">
+      <c r="L87" s="65" t="s">
         <v>644</v>
       </c>
-      <c r="M87" s="67"/>
-      <c r="N87" s="86" t="s">
+      <c r="M87" s="66"/>
+      <c r="N87" s="85" t="s">
         <v>645</v>
       </c>
       <c r="Q87" s="12"/>
-      <c r="U87" s="87" t="s">
+      <c r="U87" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="V87" s="88">
+      <c r="V87" s="87">
         <v>47</v>
       </c>
       <c r="W87" s="6">
@@ -10625,27 +10648,27 @@
       <c r="H88" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="I88" s="64" t="s">
+      <c r="I88" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="J88" s="65" t="s">
+      <c r="J88" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="K88" s="65" t="s">
+      <c r="K88" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="L88" s="66" t="s">
+      <c r="L88" s="65" t="s">
         <v>648</v>
       </c>
-      <c r="M88" s="67"/>
-      <c r="N88" s="86" t="s">
+      <c r="M88" s="66"/>
+      <c r="N88" s="85" t="s">
         <v>649</v>
       </c>
       <c r="Q88" s="12"/>
-      <c r="U88" s="87" t="s">
+      <c r="U88" s="86" t="s">
         <v>626</v>
       </c>
-      <c r="V88" s="88">
+      <c r="V88" s="87">
         <v>44</v>
       </c>
       <c r="W88" s="6">
@@ -10693,27 +10716,27 @@
       <c r="H89" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="I89" s="64" t="s">
+      <c r="I89" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="J89" s="65" t="s">
+      <c r="J89" s="64" t="s">
         <v>650</v>
       </c>
-      <c r="K89" s="65" t="s">
+      <c r="K89" s="64" t="s">
         <v>651</v>
       </c>
-      <c r="L89" s="66" t="s">
+      <c r="L89" s="65" t="s">
         <v>652</v>
       </c>
-      <c r="M89" s="67"/>
-      <c r="N89" s="86" t="s">
+      <c r="M89" s="66"/>
+      <c r="N89" s="85" t="s">
         <v>653</v>
       </c>
       <c r="Q89" s="12"/>
-      <c r="U89" s="87" t="s">
+      <c r="U89" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="V89" s="88">
+      <c r="V89" s="87">
         <v>52</v>
       </c>
       <c r="W89" s="6">
@@ -10761,27 +10784,27 @@
       <c r="H90" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="I90" s="64" t="s">
+      <c r="I90" s="63" t="s">
         <v>1027</v>
       </c>
-      <c r="J90" s="65" t="s">
+      <c r="J90" s="64" t="s">
         <v>1028</v>
       </c>
-      <c r="K90" s="65" t="s">
+      <c r="K90" s="64" t="s">
         <v>1029</v>
       </c>
-      <c r="L90" s="66" t="s">
+      <c r="L90" s="65" t="s">
         <v>1030</v>
       </c>
-      <c r="M90" s="67"/>
-      <c r="N90" s="86" t="s">
+      <c r="M90" s="66"/>
+      <c r="N90" s="85" t="s">
         <v>1031</v>
       </c>
       <c r="Q90" s="12"/>
-      <c r="U90" s="87" t="s">
+      <c r="U90" s="86" t="s">
         <v>1039</v>
       </c>
-      <c r="V90" s="88">
+      <c r="V90" s="87">
         <v>12</v>
       </c>
       <c r="W90" s="6">
@@ -10829,27 +10852,27 @@
       <c r="H91" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="I91" s="64" t="s">
+      <c r="I91" s="63" t="s">
         <v>1147</v>
       </c>
-      <c r="J91" s="65" t="s">
+      <c r="J91" s="64" t="s">
         <v>1148</v>
       </c>
-      <c r="K91" s="65" t="s">
+      <c r="K91" s="64" t="s">
         <v>1149</v>
       </c>
-      <c r="L91" s="66" t="s">
+      <c r="L91" s="65" t="s">
         <v>1150</v>
       </c>
-      <c r="M91" s="67"/>
-      <c r="N91" s="86" t="s">
+      <c r="M91" s="66"/>
+      <c r="N91" s="85" t="s">
         <v>521</v>
       </c>
       <c r="Q91" s="12"/>
-      <c r="U91" s="87" t="s">
+      <c r="U91" s="86" t="s">
         <v>1151</v>
       </c>
-      <c r="V91" s="88">
+      <c r="V91" s="87">
         <v>0</v>
       </c>
       <c r="W91" s="6">
@@ -10894,27 +10917,27 @@
       <c r="H92" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="I92" s="64" t="s">
+      <c r="I92" s="63" t="s">
         <v>1240</v>
       </c>
-      <c r="J92" s="65" t="s">
+      <c r="J92" s="64" t="s">
         <v>1241</v>
       </c>
-      <c r="K92" s="65" t="s">
+      <c r="K92" s="64" t="s">
         <v>1242</v>
       </c>
-      <c r="L92" s="66" t="s">
+      <c r="L92" s="65" t="s">
         <v>1243</v>
       </c>
-      <c r="M92" s="67"/>
-      <c r="N92" s="86" t="s">
+      <c r="M92" s="66"/>
+      <c r="N92" s="85" t="s">
         <v>1244</v>
       </c>
       <c r="Q92" s="12"/>
-      <c r="U92" s="87" t="s">
+      <c r="U92" s="86" t="s">
         <v>1201</v>
       </c>
-      <c r="V92" s="88">
+      <c r="V92" s="87">
         <v>1</v>
       </c>
       <c r="W92" s="6">
@@ -10959,27 +10982,27 @@
       <c r="H93" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="I93" s="64" t="s">
+      <c r="I93" s="63" t="s">
         <v>1276</v>
       </c>
-      <c r="J93" s="65" t="s">
+      <c r="J93" s="64" t="s">
         <v>1277</v>
       </c>
-      <c r="K93" s="65" t="s">
+      <c r="K93" s="64" t="s">
         <v>1278</v>
       </c>
-      <c r="L93" s="66" t="s">
+      <c r="L93" s="65" t="s">
         <v>1279</v>
       </c>
-      <c r="M93" s="67"/>
-      <c r="N93" s="86" t="s">
+      <c r="M93" s="66"/>
+      <c r="N93" s="85" t="s">
         <v>1280</v>
       </c>
       <c r="Q93" s="12"/>
-      <c r="U93" s="87" t="s">
+      <c r="U93" s="86" t="s">
         <v>1250</v>
       </c>
-      <c r="V93" s="88">
+      <c r="V93" s="87">
         <v>7</v>
       </c>
       <c r="W93" s="6">
@@ -11017,27 +11040,27 @@
       <c r="H94" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="I94" s="64" t="s">
+      <c r="I94" s="63" t="s">
         <v>1283</v>
       </c>
-      <c r="J94" s="65" t="s">
+      <c r="J94" s="64" t="s">
         <v>1284</v>
       </c>
-      <c r="K94" s="65" t="s">
+      <c r="K94" s="64" t="s">
         <v>1285</v>
       </c>
-      <c r="L94" s="66" t="s">
+      <c r="L94" s="65" t="s">
         <v>1286</v>
       </c>
-      <c r="M94" s="67"/>
-      <c r="N94" s="86" t="s">
+      <c r="M94" s="66"/>
+      <c r="N94" s="85" t="s">
         <v>1287</v>
       </c>
       <c r="Q94" s="12"/>
-      <c r="U94" s="87" t="s">
+      <c r="U94" s="86" t="s">
         <v>1250</v>
       </c>
-      <c r="V94" s="88">
+      <c r="V94" s="87">
         <v>5</v>
       </c>
       <c r="W94" s="6">
@@ -11075,27 +11098,27 @@
       <c r="H95" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="I95" s="64" t="s">
+      <c r="I95" s="63" t="s">
         <v>1290</v>
       </c>
-      <c r="J95" s="65" t="s">
+      <c r="J95" s="64" t="s">
         <v>1291</v>
       </c>
-      <c r="K95" s="65" t="s">
+      <c r="K95" s="64" t="s">
         <v>1292</v>
       </c>
-      <c r="L95" s="66" t="s">
+      <c r="L95" s="65" t="s">
         <v>1293</v>
       </c>
-      <c r="M95" s="67"/>
-      <c r="N95" s="86" t="s">
+      <c r="M95" s="66"/>
+      <c r="N95" s="85" t="s">
         <v>1294</v>
       </c>
       <c r="Q95" s="12"/>
-      <c r="U95" s="87" t="s">
+      <c r="U95" s="86" t="s">
         <v>1250</v>
       </c>
-      <c r="V95" s="88">
+      <c r="V95" s="87">
         <v>6</v>
       </c>
       <c r="W95" s="6">
@@ -11130,20 +11153,20 @@
       <c r="H96" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="I96" s="68" t="s">
+      <c r="I96" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="J96" s="69" t="s">
+      <c r="J96" s="68" t="s">
         <v>654</v>
       </c>
-      <c r="K96" s="69"/>
-      <c r="L96" s="70" t="s">
+      <c r="K96" s="68"/>
+      <c r="L96" s="69" t="s">
         <v>655</v>
       </c>
-      <c r="M96" s="71" t="s">
+      <c r="M96" s="70" t="s">
         <v>656</v>
       </c>
-      <c r="N96" s="89" t="s">
+      <c r="N96" s="88" t="s">
         <v>657</v>
       </c>
       <c r="O96" s="4" t="s">
@@ -11152,10 +11175,10 @@
       <c r="Q96" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="U96" s="90" t="s">
+      <c r="U96" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V96" s="91">
+      <c r="V96" s="90">
         <v>5</v>
       </c>
       <c r="W96" s="4">
@@ -11208,18 +11231,18 @@
       <c r="H97" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="I97" s="68" t="s">
+      <c r="I97" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="J97" s="69" t="s">
+      <c r="J97" s="68" t="s">
         <v>663</v>
       </c>
-      <c r="K97" s="69"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="71" t="s">
+      <c r="K97" s="68"/>
+      <c r="L97" s="69"/>
+      <c r="M97" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="N97" s="89" t="s">
+      <c r="N97" s="88" t="s">
         <v>665</v>
       </c>
       <c r="O97" s="4" t="s">
@@ -11228,10 +11251,10 @@
       <c r="Q97" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="U97" s="90" t="s">
+      <c r="U97" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V97" s="91">
+      <c r="V97" s="90">
         <v>2</v>
       </c>
       <c r="W97" s="4">
@@ -11275,20 +11298,20 @@
       <c r="H98" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="I98" s="68" t="s">
+      <c r="I98" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="J98" s="69" t="s">
+      <c r="J98" s="68" t="s">
         <v>668</v>
       </c>
-      <c r="K98" s="69"/>
-      <c r="L98" s="70" t="s">
+      <c r="K98" s="68"/>
+      <c r="L98" s="69" t="s">
         <v>669</v>
       </c>
-      <c r="M98" s="71" t="s">
+      <c r="M98" s="70" t="s">
         <v>670</v>
       </c>
-      <c r="N98" s="89" t="s">
+      <c r="N98" s="88" t="s">
         <v>671</v>
       </c>
       <c r="O98" s="4" t="s">
@@ -11300,10 +11323,10 @@
       <c r="Q98" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="U98" s="90" t="s">
+      <c r="U98" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V98" s="91">
+      <c r="V98" s="90">
         <v>1</v>
       </c>
       <c r="W98" s="4">
@@ -11362,20 +11385,20 @@
       <c r="H99" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="I99" s="68" t="s">
+      <c r="I99" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="J99" s="69" t="s">
+      <c r="J99" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="K99" s="69"/>
-      <c r="L99" s="70" t="s">
+      <c r="K99" s="68"/>
+      <c r="L99" s="69" t="s">
         <v>676</v>
       </c>
-      <c r="M99" s="71" t="s">
+      <c r="M99" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="N99" s="89" t="s">
+      <c r="N99" s="88" t="s">
         <v>678</v>
       </c>
       <c r="O99" s="4" t="s">
@@ -11384,10 +11407,10 @@
       <c r="Q99" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="U99" s="90" t="s">
+      <c r="U99" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V99" s="91">
+      <c r="V99" s="90">
         <v>0</v>
       </c>
       <c r="W99" s="4">
@@ -11437,20 +11460,20 @@
       <c r="H100" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="I100" s="68" t="s">
+      <c r="I100" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="J100" s="69" t="s">
+      <c r="J100" s="68" t="s">
         <v>681</v>
       </c>
-      <c r="K100" s="69"/>
-      <c r="L100" s="70" t="s">
+      <c r="K100" s="68"/>
+      <c r="L100" s="69" t="s">
         <v>682</v>
       </c>
-      <c r="M100" s="71" t="s">
+      <c r="M100" s="70" t="s">
         <v>683</v>
       </c>
-      <c r="N100" s="89" t="s">
+      <c r="N100" s="88" t="s">
         <v>684</v>
       </c>
       <c r="O100" s="4" t="s">
@@ -11459,10 +11482,10 @@
       <c r="Q100" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="U100" s="90" t="s">
+      <c r="U100" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V100" s="91">
+      <c r="V100" s="90">
         <v>4</v>
       </c>
       <c r="W100" s="4">
@@ -11518,20 +11541,20 @@
       <c r="H101" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="I101" s="68" t="s">
+      <c r="I101" s="67" t="s">
         <v>920</v>
       </c>
-      <c r="J101" s="69" t="s">
+      <c r="J101" s="68" t="s">
         <v>921</v>
       </c>
-      <c r="K101" s="69"/>
-      <c r="L101" s="70" t="s">
+      <c r="K101" s="68"/>
+      <c r="L101" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="M101" s="71" t="s">
+      <c r="M101" s="70" t="s">
         <v>922</v>
       </c>
-      <c r="N101" s="89" t="s">
+      <c r="N101" s="88" t="s">
         <v>924</v>
       </c>
       <c r="O101" s="4" t="s">
@@ -11540,10 +11563,10 @@
       <c r="Q101" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="U101" s="90" t="s">
+      <c r="U101" s="89" t="s">
         <v>925</v>
       </c>
-      <c r="V101" s="91">
+      <c r="V101" s="90">
         <v>2</v>
       </c>
       <c r="W101" s="4">
@@ -11588,20 +11611,20 @@
       <c r="H102" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="I102" s="68" t="s">
+      <c r="I102" s="67" t="s">
         <v>932</v>
       </c>
-      <c r="J102" s="69" t="s">
+      <c r="J102" s="68" t="s">
         <v>933</v>
       </c>
-      <c r="K102" s="69"/>
-      <c r="L102" s="70" t="s">
+      <c r="K102" s="68"/>
+      <c r="L102" s="69" t="s">
         <v>935</v>
       </c>
-      <c r="M102" s="71" t="s">
+      <c r="M102" s="70" t="s">
         <v>934</v>
       </c>
-      <c r="N102" s="89" t="s">
+      <c r="N102" s="88" t="s">
         <v>936</v>
       </c>
       <c r="O102" s="4" t="s">
@@ -11610,10 +11633,10 @@
       <c r="Q102" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="U102" s="90" t="s">
+      <c r="U102" s="89" t="s">
         <v>925</v>
       </c>
-      <c r="V102" s="91">
+      <c r="V102" s="90">
         <v>0</v>
       </c>
       <c r="W102" s="4">
@@ -11657,20 +11680,20 @@
       <c r="H103" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="I103" s="68" t="s">
+      <c r="I103" s="67" t="s">
         <v>941</v>
       </c>
-      <c r="J103" s="69" t="s">
+      <c r="J103" s="68" t="s">
         <v>942</v>
       </c>
-      <c r="K103" s="69"/>
-      <c r="L103" s="70" t="s">
+      <c r="K103" s="68"/>
+      <c r="L103" s="69" t="s">
         <v>943</v>
       </c>
-      <c r="M103" s="71" t="s">
+      <c r="M103" s="70" t="s">
         <v>944</v>
       </c>
-      <c r="N103" s="89" t="s">
+      <c r="N103" s="88" t="s">
         <v>945</v>
       </c>
       <c r="O103" s="4" t="s">
@@ -11679,10 +11702,10 @@
       <c r="Q103" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="U103" s="90" t="s">
+      <c r="U103" s="89" t="s">
         <v>925</v>
       </c>
-      <c r="V103" s="91">
+      <c r="V103" s="90">
         <v>1</v>
       </c>
       <c r="W103" s="4">
@@ -11726,20 +11749,20 @@
       <c r="H104" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="I104" s="68" t="s">
+      <c r="I104" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="J104" s="69" t="s">
+      <c r="J104" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="K104" s="69"/>
-      <c r="L104" s="70" t="s">
+      <c r="K104" s="68"/>
+      <c r="L104" s="69" t="s">
         <v>688</v>
       </c>
-      <c r="M104" s="71" t="s">
+      <c r="M104" s="70" t="s">
         <v>689</v>
       </c>
-      <c r="N104" s="89" t="s">
+      <c r="N104" s="88" t="s">
         <v>690</v>
       </c>
       <c r="O104" s="4" t="s">
@@ -11748,10 +11771,10 @@
       <c r="Q104" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="U104" s="90" t="s">
+      <c r="U104" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V104" s="91">
+      <c r="V104" s="90">
         <v>6</v>
       </c>
       <c r="W104" s="4">
@@ -11798,20 +11821,20 @@
       <c r="H105" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I105" s="68" t="s">
+      <c r="I105" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="J105" s="69" t="s">
+      <c r="J105" s="68" t="s">
         <v>693</v>
       </c>
-      <c r="K105" s="69"/>
-      <c r="L105" s="70" t="s">
+      <c r="K105" s="68"/>
+      <c r="L105" s="69" t="s">
         <v>985</v>
       </c>
-      <c r="M105" s="71" t="s">
+      <c r="M105" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="N105" s="89" t="s">
+      <c r="N105" s="88" t="s">
         <v>695</v>
       </c>
       <c r="O105" s="4" t="s">
@@ -11820,10 +11843,10 @@
       <c r="Q105" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="U105" s="90" t="s">
+      <c r="U105" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V105" s="91">
+      <c r="V105" s="90">
         <v>3</v>
       </c>
       <c r="W105" s="4">
@@ -11868,20 +11891,20 @@
       <c r="H106" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="I106" s="68" t="s">
+      <c r="I106" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="J106" s="69" t="s">
+      <c r="J106" s="68" t="s">
         <v>698</v>
       </c>
-      <c r="K106" s="69"/>
-      <c r="L106" s="70" t="s">
+      <c r="K106" s="68"/>
+      <c r="L106" s="69" t="s">
         <v>700</v>
       </c>
-      <c r="M106" s="71" t="s">
+      <c r="M106" s="70" t="s">
         <v>699</v>
       </c>
-      <c r="N106" s="89" t="s">
+      <c r="N106" s="88" t="s">
         <v>701</v>
       </c>
       <c r="O106" s="4" t="s">
@@ -11890,10 +11913,10 @@
       <c r="Q106" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="U106" s="90" t="s">
+      <c r="U106" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V106" s="91">
+      <c r="V106" s="90">
         <v>7</v>
       </c>
       <c r="W106" s="4">
@@ -11946,20 +11969,20 @@
       <c r="H107" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="I107" s="68" t="s">
+      <c r="I107" s="67" t="s">
         <v>1093</v>
       </c>
-      <c r="J107" s="69" t="s">
+      <c r="J107" s="68" t="s">
         <v>1094</v>
       </c>
-      <c r="K107" s="69"/>
-      <c r="L107" s="70" t="s">
+      <c r="K107" s="68"/>
+      <c r="L107" s="69" t="s">
         <v>1095</v>
       </c>
-      <c r="M107" s="71" t="s">
+      <c r="M107" s="70" t="s">
         <v>1096</v>
       </c>
-      <c r="N107" s="89" t="s">
+      <c r="N107" s="88" t="s">
         <v>1097</v>
       </c>
       <c r="O107" s="4" t="s">
@@ -11968,10 +11991,10 @@
       <c r="Q107" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="U107" s="90" t="s">
+      <c r="U107" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V107" s="91">
+      <c r="V107" s="90">
         <v>6</v>
       </c>
       <c r="W107" s="4">
@@ -12024,20 +12047,20 @@
       <c r="H108" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="I108" s="68" t="s">
+      <c r="I108" s="67" t="s">
         <v>1103</v>
       </c>
-      <c r="J108" s="69" t="s">
+      <c r="J108" s="68" t="s">
         <v>1104</v>
       </c>
-      <c r="K108" s="69"/>
-      <c r="L108" s="70" t="s">
+      <c r="K108" s="68"/>
+      <c r="L108" s="69" t="s">
         <v>1235</v>
       </c>
-      <c r="M108" s="71" t="s">
+      <c r="M108" s="70" t="s">
         <v>1105</v>
       </c>
-      <c r="N108" s="89" t="s">
+      <c r="N108" s="88" t="s">
         <v>1106</v>
       </c>
       <c r="O108" s="4" t="s">
@@ -12046,10 +12069,10 @@
       <c r="Q108" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="U108" s="90" t="s">
+      <c r="U108" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V108" s="91">
+      <c r="V108" s="90">
         <v>7</v>
       </c>
       <c r="W108" s="4">
@@ -12091,20 +12114,20 @@
       <c r="H109" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="I109" s="68" t="s">
+      <c r="I109" s="67" t="s">
         <v>1378</v>
       </c>
-      <c r="J109" s="69" t="s">
+      <c r="J109" s="68" t="s">
         <v>1379</v>
       </c>
-      <c r="K109" s="69"/>
-      <c r="L109" s="70" t="s">
+      <c r="K109" s="68"/>
+      <c r="L109" s="69" t="s">
         <v>1380</v>
       </c>
-      <c r="M109" s="71" t="s">
+      <c r="M109" s="70" t="s">
         <v>1381</v>
       </c>
-      <c r="N109" s="89" t="s">
+      <c r="N109" s="88" t="s">
         <v>1382</v>
       </c>
       <c r="O109" s="4" t="s">
@@ -12113,10 +12136,10 @@
       <c r="Q109" s="13" t="s">
         <v>1384</v>
       </c>
-      <c r="U109" s="90" t="s">
+      <c r="U109" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V109" s="91">
+      <c r="V109" s="90">
         <v>10</v>
       </c>
       <c r="W109" s="4">
@@ -12164,20 +12187,20 @@
       <c r="H110" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I110" s="68" t="s">
+      <c r="I110" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="J110" s="69" t="s">
+      <c r="J110" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="K110" s="69"/>
-      <c r="L110" s="70" t="s">
+      <c r="K110" s="68"/>
+      <c r="L110" s="69" t="s">
         <v>712</v>
       </c>
-      <c r="M110" s="71" t="s">
+      <c r="M110" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="N110" s="89" t="s">
+      <c r="N110" s="88" t="s">
         <v>714</v>
       </c>
       <c r="O110" s="4" t="s">
@@ -12186,10 +12209,10 @@
       <c r="Q110" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="U110" s="90" t="s">
+      <c r="U110" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V110" s="91">
+      <c r="V110" s="90">
         <v>8</v>
       </c>
       <c r="W110" s="4">
@@ -12231,20 +12254,20 @@
       <c r="H111" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="I111" s="68" t="s">
+      <c r="I111" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="J111" s="69" t="s">
+      <c r="J111" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="K111" s="69"/>
-      <c r="L111" s="70" t="s">
+      <c r="K111" s="68"/>
+      <c r="L111" s="69" t="s">
         <v>719</v>
       </c>
-      <c r="M111" s="71" t="s">
+      <c r="M111" s="70" t="s">
         <v>720</v>
       </c>
-      <c r="N111" s="89" t="s">
+      <c r="N111" s="88" t="s">
         <v>721</v>
       </c>
       <c r="O111" s="4" t="s">
@@ -12253,10 +12276,10 @@
       <c r="Q111" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="U111" s="90" t="s">
+      <c r="U111" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V111" s="91">
+      <c r="V111" s="90">
         <v>12</v>
       </c>
       <c r="W111" s="4">
@@ -12306,20 +12329,20 @@
       <c r="H112" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="I112" s="68" t="s">
+      <c r="I112" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="J112" s="69" t="s">
+      <c r="J112" s="68" t="s">
         <v>724</v>
       </c>
-      <c r="K112" s="69"/>
-      <c r="L112" s="70" t="s">
+      <c r="K112" s="68"/>
+      <c r="L112" s="69" t="s">
         <v>725</v>
       </c>
-      <c r="M112" s="71" t="s">
+      <c r="M112" s="70" t="s">
         <v>726</v>
       </c>
-      <c r="N112" s="89" t="s">
+      <c r="N112" s="88" t="s">
         <v>727</v>
       </c>
       <c r="O112" s="4" t="s">
@@ -12331,10 +12354,10 @@
       <c r="Q112" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="U112" s="90" t="s">
+      <c r="U112" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V112" s="91">
+      <c r="V112" s="90">
         <v>11</v>
       </c>
       <c r="W112" s="4">
@@ -12384,20 +12407,20 @@
       <c r="H113" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I113" s="68" t="s">
+      <c r="I113" s="67" t="s">
         <v>1073</v>
       </c>
-      <c r="J113" s="69" t="s">
+      <c r="J113" s="68" t="s">
         <v>1074</v>
       </c>
-      <c r="K113" s="69"/>
-      <c r="L113" s="70" t="s">
+      <c r="K113" s="68"/>
+      <c r="L113" s="69" t="s">
         <v>1075</v>
       </c>
-      <c r="M113" s="71" t="s">
+      <c r="M113" s="70" t="s">
         <v>1076</v>
       </c>
-      <c r="N113" s="89" t="s">
+      <c r="N113" s="88" t="s">
         <v>1077</v>
       </c>
       <c r="O113" s="4" t="s">
@@ -12406,10 +12429,10 @@
       <c r="Q113" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="U113" s="90" t="s">
+      <c r="U113" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V113" s="91">
+      <c r="V113" s="90">
         <v>2</v>
       </c>
       <c r="W113" s="4">
@@ -12462,20 +12485,20 @@
       <c r="H114" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I114" s="68" t="s">
+      <c r="I114" s="67" t="s">
         <v>1369</v>
       </c>
-      <c r="J114" s="69" t="s">
+      <c r="J114" s="68" t="s">
         <v>1370</v>
       </c>
-      <c r="K114" s="69"/>
-      <c r="L114" s="70" t="s">
+      <c r="K114" s="68"/>
+      <c r="L114" s="69" t="s">
         <v>1371</v>
       </c>
-      <c r="M114" s="71" t="s">
+      <c r="M114" s="70" t="s">
         <v>1372</v>
       </c>
-      <c r="N114" s="89" t="s">
+      <c r="N114" s="88" t="s">
         <v>1373</v>
       </c>
       <c r="O114" s="4" t="s">
@@ -12484,10 +12507,10 @@
       <c r="Q114" s="13" t="s">
         <v>1375</v>
       </c>
-      <c r="U114" s="90" t="s">
+      <c r="U114" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V114" s="91">
+      <c r="V114" s="90">
         <v>5</v>
       </c>
       <c r="W114" s="4">
@@ -12529,20 +12552,20 @@
       <c r="H115" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="I115" s="68" t="s">
+      <c r="I115" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="J115" s="69" t="s">
+      <c r="J115" s="68" t="s">
         <v>705</v>
       </c>
-      <c r="K115" s="69"/>
-      <c r="L115" s="70" t="s">
+      <c r="K115" s="68"/>
+      <c r="L115" s="69" t="s">
         <v>706</v>
       </c>
-      <c r="M115" s="71" t="s">
+      <c r="M115" s="70" t="s">
         <v>707</v>
       </c>
-      <c r="N115" s="89" t="s">
+      <c r="N115" s="88" t="s">
         <v>708</v>
       </c>
       <c r="O115" s="4" t="s">
@@ -12551,10 +12574,10 @@
       <c r="Q115" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="U115" s="90" t="s">
+      <c r="U115" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V115" s="91">
+      <c r="V115" s="90">
         <v>9</v>
       </c>
       <c r="W115" s="4">
@@ -12604,18 +12627,18 @@
       <c r="H116" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="I116" s="68" t="s">
+      <c r="I116" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="J116" s="69" t="s">
+      <c r="J116" s="68" t="s">
         <v>731</v>
       </c>
-      <c r="K116" s="69"/>
-      <c r="L116" s="70"/>
-      <c r="M116" s="71" t="s">
+      <c r="K116" s="68"/>
+      <c r="L116" s="69"/>
+      <c r="M116" s="70" t="s">
         <v>732</v>
       </c>
-      <c r="N116" s="89" t="s">
+      <c r="N116" s="88" t="s">
         <v>733</v>
       </c>
       <c r="O116" s="4" t="s">
@@ -12624,10 +12647,10 @@
       <c r="Q116" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="U116" s="90" t="s">
+      <c r="U116" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V116" s="91">
+      <c r="V116" s="90">
         <v>10</v>
       </c>
       <c r="W116" s="4">
@@ -12674,20 +12697,20 @@
       <c r="H117" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I117" s="68" t="s">
+      <c r="I117" s="67" t="s">
         <v>1034</v>
       </c>
-      <c r="J117" s="69" t="s">
+      <c r="J117" s="68" t="s">
         <v>1035</v>
       </c>
-      <c r="K117" s="69"/>
-      <c r="L117" s="70" t="s">
+      <c r="K117" s="68"/>
+      <c r="L117" s="69" t="s">
         <v>1036</v>
       </c>
-      <c r="M117" s="71" t="s">
+      <c r="M117" s="70" t="s">
         <v>1037</v>
       </c>
-      <c r="N117" s="89" t="s">
+      <c r="N117" s="88" t="s">
         <v>1038</v>
       </c>
       <c r="O117" s="4" t="s">
@@ -12696,10 +12719,10 @@
       <c r="Q117" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="U117" s="90" t="s">
+      <c r="U117" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V117" s="91">
+      <c r="V117" s="90">
         <v>0</v>
       </c>
       <c r="W117" s="4">
@@ -12747,20 +12770,20 @@
       <c r="H118" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="I118" s="68" t="s">
+      <c r="I118" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="J118" s="69" t="s">
+      <c r="J118" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="K118" s="69"/>
-      <c r="L118" s="70" t="s">
+      <c r="K118" s="68"/>
+      <c r="L118" s="69" t="s">
         <v>742</v>
       </c>
-      <c r="M118" s="71" t="s">
+      <c r="M118" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="N118" s="89" t="s">
+      <c r="N118" s="88" t="s">
         <v>745</v>
       </c>
       <c r="O118" s="4" t="s">
@@ -12772,10 +12795,10 @@
       <c r="Q118" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="U118" s="90" t="s">
+      <c r="U118" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V118" s="91">
+      <c r="V118" s="90">
         <v>15</v>
       </c>
       <c r="W118" s="4">
@@ -12825,20 +12848,20 @@
       <c r="H119" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="I119" s="68" t="s">
+      <c r="I119" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="J119" s="69" t="s">
+      <c r="J119" s="68" t="s">
         <v>749</v>
       </c>
-      <c r="K119" s="69"/>
-      <c r="L119" s="70" t="s">
+      <c r="K119" s="68"/>
+      <c r="L119" s="69" t="s">
         <v>750</v>
       </c>
-      <c r="M119" s="71" t="s">
+      <c r="M119" s="70" t="s">
         <v>751</v>
       </c>
-      <c r="N119" s="89" t="s">
+      <c r="N119" s="88" t="s">
         <v>752</v>
       </c>
       <c r="O119" s="4" t="s">
@@ -12847,10 +12870,10 @@
       <c r="Q119" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="U119" s="90" t="s">
+      <c r="U119" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V119" s="91">
+      <c r="V119" s="90">
         <v>17</v>
       </c>
       <c r="W119" s="4">
@@ -12901,20 +12924,20 @@
       <c r="H120" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="I120" s="68" t="s">
+      <c r="I120" s="67" t="s">
         <v>1064</v>
       </c>
-      <c r="J120" s="69" t="s">
+      <c r="J120" s="68" t="s">
         <v>1065</v>
       </c>
-      <c r="K120" s="69"/>
-      <c r="L120" s="70" t="s">
+      <c r="K120" s="68"/>
+      <c r="L120" s="69" t="s">
         <v>1066</v>
       </c>
-      <c r="M120" s="71" t="s">
+      <c r="M120" s="70" t="s">
         <v>1067</v>
       </c>
-      <c r="N120" s="89" t="s">
+      <c r="N120" s="88" t="s">
         <v>1068</v>
       </c>
       <c r="O120" s="4" t="s">
@@ -12923,10 +12946,10 @@
       <c r="Q120" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="U120" s="90" t="s">
+      <c r="U120" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V120" s="91">
+      <c r="V120" s="90">
         <v>4</v>
       </c>
       <c r="W120" s="4">
@@ -12971,20 +12994,20 @@
       <c r="H121" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="I121" s="68" t="s">
+      <c r="I121" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="J121" s="69" t="s">
+      <c r="J121" s="68" t="s">
         <v>761</v>
       </c>
-      <c r="K121" s="69"/>
-      <c r="L121" s="70" t="s">
+      <c r="K121" s="68"/>
+      <c r="L121" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="M121" s="71" t="s">
+      <c r="M121" s="70" t="s">
         <v>763</v>
       </c>
-      <c r="N121" s="89" t="s">
+      <c r="N121" s="88" t="s">
         <v>764</v>
       </c>
       <c r="O121" s="4" t="s">
@@ -12996,10 +13019,10 @@
       <c r="Q121" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="U121" s="90" t="s">
+      <c r="U121" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V121" s="91">
+      <c r="V121" s="90">
         <v>14</v>
       </c>
       <c r="W121" s="4">
@@ -13047,20 +13070,20 @@
       <c r="H122" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="I122" s="68" t="s">
+      <c r="I122" s="67" t="s">
         <v>1330</v>
       </c>
-      <c r="J122" s="69" t="s">
+      <c r="J122" s="68" t="s">
         <v>1331</v>
       </c>
-      <c r="K122" s="69"/>
-      <c r="L122" s="70" t="s">
+      <c r="K122" s="68"/>
+      <c r="L122" s="69" t="s">
         <v>1332</v>
       </c>
-      <c r="M122" s="71" t="s">
+      <c r="M122" s="70" t="s">
         <v>1333</v>
       </c>
-      <c r="N122" s="89" t="s">
+      <c r="N122" s="88" t="s">
         <v>1334</v>
       </c>
       <c r="O122" s="4" t="s">
@@ -13069,10 +13092,10 @@
       <c r="Q122" s="13" t="s">
         <v>1336</v>
       </c>
-      <c r="U122" s="90" t="s">
+      <c r="U122" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V122" s="91">
+      <c r="V122" s="90">
         <v>7</v>
       </c>
       <c r="W122" s="4">
@@ -13120,20 +13143,20 @@
       <c r="H123" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="I123" s="68" t="s">
+      <c r="I123" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J123" s="69" t="s">
+      <c r="J123" s="68" t="s">
         <v>736</v>
       </c>
-      <c r="K123" s="69"/>
-      <c r="L123" s="70" t="s">
+      <c r="K123" s="68"/>
+      <c r="L123" s="69" t="s">
         <v>737</v>
       </c>
-      <c r="M123" s="71" t="s">
+      <c r="M123" s="70" t="s">
         <v>738</v>
       </c>
-      <c r="N123" s="89" t="s">
+      <c r="N123" s="88" t="s">
         <v>739</v>
       </c>
       <c r="O123" s="4" t="s">
@@ -13142,10 +13165,10 @@
       <c r="Q123" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="U123" s="90" t="s">
+      <c r="U123" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V123" s="91">
+      <c r="V123" s="90">
         <v>16</v>
       </c>
       <c r="W123" s="4">
@@ -13195,20 +13218,20 @@
       <c r="H124" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="I124" s="68" t="s">
+      <c r="I124" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="J124" s="69" t="s">
+      <c r="J124" s="68" t="s">
         <v>767</v>
       </c>
-      <c r="K124" s="69"/>
-      <c r="L124" s="70" t="s">
+      <c r="K124" s="68"/>
+      <c r="L124" s="69" t="s">
         <v>768</v>
       </c>
-      <c r="M124" s="71" t="s">
+      <c r="M124" s="70" t="s">
         <v>769</v>
       </c>
-      <c r="N124" s="89" t="s">
+      <c r="N124" s="88" t="s">
         <v>770</v>
       </c>
       <c r="O124" s="4" t="s">
@@ -13217,10 +13240,10 @@
       <c r="Q124" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="U124" s="90" t="s">
+      <c r="U124" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V124" s="91">
+      <c r="V124" s="90">
         <v>18</v>
       </c>
       <c r="W124" s="4">
@@ -13265,20 +13288,20 @@
       <c r="H125" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="I125" s="68" t="s">
+      <c r="I125" s="67" t="s">
         <v>1319</v>
       </c>
-      <c r="J125" s="69" t="s">
+      <c r="J125" s="68" t="s">
         <v>1320</v>
       </c>
-      <c r="K125" s="69"/>
-      <c r="L125" s="70" t="s">
+      <c r="K125" s="68"/>
+      <c r="L125" s="69" t="s">
         <v>1321</v>
       </c>
-      <c r="M125" s="71" t="s">
+      <c r="M125" s="70" t="s">
         <v>1322</v>
       </c>
-      <c r="N125" s="89" t="s">
+      <c r="N125" s="88" t="s">
         <v>1323</v>
       </c>
       <c r="O125" s="4" t="s">
@@ -13287,10 +13310,10 @@
       <c r="Q125" s="13" t="s">
         <v>1325</v>
       </c>
-      <c r="U125" s="90" t="s">
+      <c r="U125" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V125" s="91">
+      <c r="V125" s="90">
         <v>12</v>
       </c>
       <c r="W125" s="4">
@@ -13338,20 +13361,20 @@
       <c r="H126" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="I126" s="68" t="s">
+      <c r="I126" s="67" t="s">
         <v>1350</v>
       </c>
-      <c r="J126" s="69" t="s">
+      <c r="J126" s="68" t="s">
         <v>1351</v>
       </c>
-      <c r="K126" s="69"/>
-      <c r="L126" s="70" t="s">
+      <c r="K126" s="68"/>
+      <c r="L126" s="69" t="s">
         <v>1352</v>
       </c>
-      <c r="M126" s="71" t="s">
+      <c r="M126" s="70" t="s">
         <v>1353</v>
       </c>
-      <c r="N126" s="89" t="s">
+      <c r="N126" s="88" t="s">
         <v>1354</v>
       </c>
       <c r="O126" s="4" t="s">
@@ -13360,10 +13383,10 @@
       <c r="Q126" s="13" t="s">
         <v>1356</v>
       </c>
-      <c r="U126" s="90" t="s">
+      <c r="U126" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V126" s="91">
+      <c r="V126" s="90">
         <v>9</v>
       </c>
       <c r="W126" s="4">
@@ -13413,20 +13436,20 @@
       <c r="H127" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="I127" s="68" t="s">
+      <c r="I127" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="J127" s="69" t="s">
+      <c r="J127" s="68" t="s">
         <v>773</v>
       </c>
-      <c r="K127" s="69"/>
-      <c r="L127" s="70" t="s">
+      <c r="K127" s="68"/>
+      <c r="L127" s="69" t="s">
         <v>774</v>
       </c>
-      <c r="M127" s="71" t="s">
+      <c r="M127" s="70" t="s">
         <v>775</v>
       </c>
-      <c r="N127" s="89" t="s">
+      <c r="N127" s="88" t="s">
         <v>776</v>
       </c>
       <c r="O127" s="4" t="s">
@@ -13435,10 +13458,10 @@
       <c r="Q127" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="U127" s="90" t="s">
+      <c r="U127" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V127" s="91">
+      <c r="V127" s="90">
         <v>19</v>
       </c>
       <c r="W127" s="4">
@@ -13485,20 +13508,20 @@
       <c r="H128" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="I128" s="68" t="s">
+      <c r="I128" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="J128" s="69" t="s">
+      <c r="J128" s="68" t="s">
         <v>780</v>
       </c>
-      <c r="K128" s="69"/>
-      <c r="L128" s="70" t="s">
+      <c r="K128" s="68"/>
+      <c r="L128" s="69" t="s">
         <v>779</v>
       </c>
-      <c r="M128" s="71" t="s">
+      <c r="M128" s="70" t="s">
         <v>781</v>
       </c>
-      <c r="N128" s="89" t="s">
+      <c r="N128" s="88" t="s">
         <v>782</v>
       </c>
       <c r="O128" s="4" t="s">
@@ -13507,10 +13530,10 @@
       <c r="Q128" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="U128" s="90" t="s">
+      <c r="U128" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V128" s="91">
+      <c r="V128" s="90">
         <v>21</v>
       </c>
       <c r="W128" s="4">
@@ -13558,20 +13581,20 @@
       <c r="H129" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="I129" s="68" t="s">
+      <c r="I129" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="J129" s="69" t="s">
+      <c r="J129" s="68" t="s">
         <v>785</v>
       </c>
-      <c r="K129" s="69"/>
-      <c r="L129" s="70" t="s">
+      <c r="K129" s="68"/>
+      <c r="L129" s="69" t="s">
         <v>786</v>
       </c>
-      <c r="M129" s="71" t="s">
+      <c r="M129" s="70" t="s">
         <v>787</v>
       </c>
-      <c r="N129" s="89" t="s">
+      <c r="N129" s="88" t="s">
         <v>788</v>
       </c>
       <c r="O129" s="4" t="s">
@@ -13583,10 +13606,10 @@
       <c r="Q129" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="U129" s="90" t="s">
+      <c r="U129" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V129" s="91">
+      <c r="V129" s="90">
         <v>20</v>
       </c>
       <c r="W129" s="4">
@@ -13630,20 +13653,20 @@
       <c r="H130" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="I130" s="68" t="s">
+      <c r="I130" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="J130" s="69" t="s">
+      <c r="J130" s="68" t="s">
         <v>792</v>
       </c>
-      <c r="K130" s="69"/>
-      <c r="L130" s="70" t="s">
+      <c r="K130" s="68"/>
+      <c r="L130" s="69" t="s">
         <v>793</v>
       </c>
-      <c r="M130" s="71" t="s">
+      <c r="M130" s="70" t="s">
         <v>794</v>
       </c>
-      <c r="N130" s="89" t="s">
+      <c r="N130" s="88" t="s">
         <v>795</v>
       </c>
       <c r="O130" s="4" t="s">
@@ -13652,10 +13675,10 @@
       <c r="Q130" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="U130" s="90" t="s">
+      <c r="U130" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V130" s="91">
+      <c r="V130" s="90">
         <v>23</v>
       </c>
       <c r="W130" s="4">
@@ -13697,20 +13720,20 @@
       <c r="H131" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="I131" s="68" t="s">
+      <c r="I131" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="J131" s="69" t="s">
+      <c r="J131" s="68" t="s">
         <v>755</v>
       </c>
-      <c r="K131" s="69"/>
-      <c r="L131" s="70" t="s">
+      <c r="K131" s="68"/>
+      <c r="L131" s="69" t="s">
         <v>756</v>
       </c>
-      <c r="M131" s="71" t="s">
+      <c r="M131" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="N131" s="89" t="s">
+      <c r="N131" s="88" t="s">
         <v>758</v>
       </c>
       <c r="O131" s="4" t="s">
@@ -13719,10 +13742,10 @@
       <c r="Q131" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="U131" s="90" t="s">
+      <c r="U131" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V131" s="91">
+      <c r="V131" s="90">
         <v>13</v>
       </c>
       <c r="W131" s="4">
@@ -13764,20 +13787,20 @@
       <c r="H132" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="I132" s="68" t="s">
+      <c r="I132" s="67" t="s">
         <v>1359</v>
       </c>
-      <c r="J132" s="69" t="s">
+      <c r="J132" s="68" t="s">
         <v>1360</v>
       </c>
-      <c r="K132" s="69"/>
-      <c r="L132" s="70" t="s">
+      <c r="K132" s="68"/>
+      <c r="L132" s="69" t="s">
         <v>1361</v>
       </c>
-      <c r="M132" s="71" t="s">
+      <c r="M132" s="70" t="s">
         <v>1362</v>
       </c>
-      <c r="N132" s="89" t="s">
+      <c r="N132" s="88" t="s">
         <v>1363</v>
       </c>
       <c r="O132" s="4" t="s">
@@ -13786,10 +13809,10 @@
       <c r="Q132" s="13" t="s">
         <v>1365</v>
       </c>
-      <c r="U132" s="90" t="s">
+      <c r="U132" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V132" s="91">
+      <c r="V132" s="90">
         <v>11</v>
       </c>
       <c r="W132" s="4">
@@ -13840,20 +13863,20 @@
       <c r="H133" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="I133" s="68" t="s">
+      <c r="I133" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="J133" s="69" t="s">
+      <c r="J133" s="68" t="s">
         <v>804</v>
       </c>
-      <c r="K133" s="69"/>
-      <c r="L133" s="70" t="s">
+      <c r="K133" s="68"/>
+      <c r="L133" s="69" t="s">
         <v>805</v>
       </c>
-      <c r="M133" s="71" t="s">
+      <c r="M133" s="70" t="s">
         <v>806</v>
       </c>
-      <c r="N133" s="89" t="s">
+      <c r="N133" s="88" t="s">
         <v>807</v>
       </c>
       <c r="O133" s="4" t="s">
@@ -13865,10 +13888,10 @@
       <c r="Q133" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="U133" s="90" t="s">
+      <c r="U133" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V133" s="91">
+      <c r="V133" s="90">
         <v>22</v>
       </c>
       <c r="W133" s="4">
@@ -13918,20 +13941,20 @@
       <c r="H134" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="I134" s="68" t="s">
+      <c r="I134" s="67" t="s">
         <v>1084</v>
       </c>
-      <c r="J134" s="69" t="s">
+      <c r="J134" s="68" t="s">
         <v>1085</v>
       </c>
-      <c r="K134" s="69"/>
-      <c r="L134" s="70" t="s">
+      <c r="K134" s="68"/>
+      <c r="L134" s="69" t="s">
         <v>1086</v>
       </c>
-      <c r="M134" s="71" t="s">
+      <c r="M134" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="N134" s="89" t="s">
+      <c r="N134" s="88" t="s">
         <v>1088</v>
       </c>
       <c r="O134" s="4" t="s">
@@ -13940,10 +13963,10 @@
       <c r="Q134" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="U134" s="90" t="s">
+      <c r="U134" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V134" s="91">
+      <c r="V134" s="90">
         <v>5</v>
       </c>
       <c r="W134" s="4">
@@ -13990,20 +14013,20 @@
       <c r="H135" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="I135" s="68" t="s">
+      <c r="I135" s="67" t="s">
         <v>1340</v>
       </c>
-      <c r="J135" s="69" t="s">
+      <c r="J135" s="68" t="s">
         <v>1341</v>
       </c>
-      <c r="K135" s="69"/>
-      <c r="L135" s="70" t="s">
+      <c r="K135" s="68"/>
+      <c r="L135" s="69" t="s">
         <v>1342</v>
       </c>
-      <c r="M135" s="71" t="s">
+      <c r="M135" s="70" t="s">
         <v>1343</v>
       </c>
-      <c r="N135" s="89" t="s">
+      <c r="N135" s="88" t="s">
         <v>1344</v>
       </c>
       <c r="O135" s="4" t="s">
@@ -14012,10 +14035,10 @@
       <c r="Q135" s="13" t="s">
         <v>1346</v>
       </c>
-      <c r="U135" s="90" t="s">
+      <c r="U135" s="89" t="s">
         <v>1201</v>
       </c>
-      <c r="V135" s="91">
+      <c r="V135" s="90">
         <v>6</v>
       </c>
       <c r="W135" s="4">
@@ -14060,20 +14083,20 @@
       <c r="H136" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I136" s="68" t="s">
+      <c r="I136" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="J136" s="69" t="s">
+      <c r="J136" s="68" t="s">
         <v>799</v>
       </c>
-      <c r="K136" s="69"/>
-      <c r="L136" s="70" t="s">
+      <c r="K136" s="68"/>
+      <c r="L136" s="69" t="s">
         <v>798</v>
       </c>
-      <c r="M136" s="71" t="s">
+      <c r="M136" s="70" t="s">
         <v>800</v>
       </c>
-      <c r="N136" s="89" t="s">
+      <c r="N136" s="88" t="s">
         <v>801</v>
       </c>
       <c r="O136" s="4" t="s">
@@ -14082,10 +14105,10 @@
       <c r="Q136" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="U136" s="90" t="s">
+      <c r="U136" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V136" s="91">
+      <c r="V136" s="90">
         <v>24</v>
       </c>
       <c r="W136" s="4">
@@ -14124,20 +14147,20 @@
       <c r="H137" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="I137" s="68" t="s">
+      <c r="I137" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="J137" s="69" t="s">
+      <c r="J137" s="68" t="s">
         <v>810</v>
       </c>
-      <c r="K137" s="69"/>
-      <c r="L137" s="70" t="s">
+      <c r="K137" s="68"/>
+      <c r="L137" s="69" t="s">
         <v>811</v>
       </c>
-      <c r="M137" s="71" t="s">
+      <c r="M137" s="70" t="s">
         <v>812</v>
       </c>
-      <c r="N137" s="89" t="s">
+      <c r="N137" s="88" t="s">
         <v>813</v>
       </c>
       <c r="O137" s="4" t="s">
@@ -14146,10 +14169,10 @@
       <c r="Q137" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="U137" s="90" t="s">
+      <c r="U137" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V137" s="91">
+      <c r="V137" s="90">
         <v>45</v>
       </c>
       <c r="W137" s="4">
@@ -14193,20 +14216,20 @@
       <c r="H138" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="I138" s="68" t="s">
+      <c r="I138" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="J138" s="69" t="s">
+      <c r="J138" s="68" t="s">
         <v>817</v>
       </c>
-      <c r="K138" s="69"/>
-      <c r="L138" s="70" t="s">
+      <c r="K138" s="68"/>
+      <c r="L138" s="69" t="s">
         <v>818</v>
       </c>
-      <c r="M138" s="71" t="s">
+      <c r="M138" s="70" t="s">
         <v>819</v>
       </c>
-      <c r="N138" s="89" t="s">
+      <c r="N138" s="88" t="s">
         <v>820</v>
       </c>
       <c r="O138" s="4" t="s">
@@ -14215,10 +14238,10 @@
       <c r="Q138" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="U138" s="90" t="s">
+      <c r="U138" s="89" t="s">
         <v>626</v>
       </c>
-      <c r="V138" s="91">
+      <c r="V138" s="90">
         <v>27</v>
       </c>
       <c r="W138" s="4">
@@ -14272,20 +14295,20 @@
       <c r="H139" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="I139" s="68" t="s">
+      <c r="I139" s="67" t="s">
         <v>1045</v>
       </c>
-      <c r="J139" s="69" t="s">
+      <c r="J139" s="68" t="s">
         <v>1046</v>
       </c>
-      <c r="K139" s="69"/>
-      <c r="L139" s="70" t="s">
+      <c r="K139" s="68"/>
+      <c r="L139" s="69" t="s">
         <v>1047</v>
       </c>
-      <c r="M139" s="71" t="s">
+      <c r="M139" s="70" t="s">
         <v>1048</v>
       </c>
-      <c r="N139" s="89" t="s">
+      <c r="N139" s="88" t="s">
         <v>1049</v>
       </c>
       <c r="O139" s="4" t="s">
@@ -14294,10 +14317,10 @@
       <c r="Q139" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="U139" s="90" t="s">
+      <c r="U139" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V139" s="91">
+      <c r="V139" s="90">
         <v>1</v>
       </c>
       <c r="W139" s="4">
@@ -14347,20 +14370,20 @@
       <c r="H140" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="I140" s="68" t="s">
+      <c r="I140" s="67" t="s">
         <v>1055</v>
       </c>
-      <c r="J140" s="69" t="s">
+      <c r="J140" s="68" t="s">
         <v>1056</v>
       </c>
-      <c r="K140" s="69"/>
-      <c r="L140" s="70" t="s">
+      <c r="K140" s="68"/>
+      <c r="L140" s="69" t="s">
         <v>1057</v>
       </c>
-      <c r="M140" s="71" t="s">
+      <c r="M140" s="70" t="s">
         <v>1058</v>
       </c>
-      <c r="N140" s="89" t="s">
+      <c r="N140" s="88" t="s">
         <v>1059</v>
       </c>
       <c r="O140" s="4" t="s">
@@ -14369,10 +14392,10 @@
       <c r="Q140" s="13" t="s">
         <v>1061</v>
       </c>
-      <c r="U140" s="90" t="s">
+      <c r="U140" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V140" s="91">
+      <c r="V140" s="90">
         <v>3</v>
       </c>
       <c r="W140" s="4">
@@ -14419,20 +14442,20 @@
       <c r="H141" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="I141" s="68" t="s">
+      <c r="I141" s="67" t="s">
         <v>1112</v>
       </c>
-      <c r="J141" s="69" t="s">
+      <c r="J141" s="68" t="s">
         <v>1113</v>
       </c>
-      <c r="K141" s="69"/>
-      <c r="L141" s="70" t="s">
+      <c r="K141" s="68"/>
+      <c r="L141" s="69" t="s">
         <v>1114</v>
       </c>
-      <c r="M141" s="71" t="s">
+      <c r="M141" s="70" t="s">
         <v>1115</v>
       </c>
-      <c r="N141" s="89" t="s">
+      <c r="N141" s="88" t="s">
         <v>1106</v>
       </c>
       <c r="O141" s="4" t="s">
@@ -14441,10 +14464,10 @@
       <c r="Q141" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="U141" s="90" t="s">
+      <c r="U141" s="89" t="s">
         <v>1039</v>
       </c>
-      <c r="V141" s="91">
+      <c r="V141" s="90">
         <v>13</v>
       </c>
       <c r="W141" s="4">
@@ -14491,20 +14514,20 @@
       <c r="E142" s="41">
         <v>-1</v>
       </c>
-      <c r="I142" s="72" t="s">
+      <c r="I142" s="71" t="s">
         <v>1388</v>
       </c>
-      <c r="J142" s="73" t="s">
+      <c r="J142" s="72" t="s">
         <v>1389</v>
       </c>
-      <c r="K142" s="73"/>
-      <c r="L142" s="74" t="s">
+      <c r="K142" s="72"/>
+      <c r="L142" s="73" t="s">
         <v>1390</v>
       </c>
-      <c r="M142" s="75" t="s">
+      <c r="M142" s="74" t="s">
         <v>1391</v>
       </c>
-      <c r="N142" s="92" t="s">
+      <c r="N142" s="91" t="s">
         <v>1392</v>
       </c>
       <c r="O142" s="41" t="s">
@@ -14513,10 +14536,10 @@
       <c r="Q142" s="42" t="s">
         <v>1394</v>
       </c>
-      <c r="U142" s="93" t="s">
+      <c r="U142" s="92" t="s">
         <v>1201</v>
       </c>
-      <c r="V142" s="94">
+      <c r="V142" s="93">
         <v>8</v>
       </c>
       <c r="W142" s="41">
@@ -15304,7 +15327,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15323,7 +15346,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="96" t="s">
+        <v>1403</v>
+      </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16839,11 +16864,11 @@
   <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16862,7 +16887,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="96" t="s">
+        <v>1403</v>
+      </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -20652,134 +20679,134 @@
       <c r="A1" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="95" t="s">
         <v>893</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>894</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>906</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46" t="s">
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95" t="s">
         <v>907</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46" t="s">
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95" t="s">
         <v>908</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95" t="s">
         <v>890</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95" t="s">
         <v>891</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46" t="s">
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="95" t="s">
         <v>892</v>
       </c>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46" t="s">
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95" t="s">
         <v>909</v>
       </c>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46" t="s">
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="95"/>
+      <c r="BB1" s="95"/>
+      <c r="BC1" s="95"/>
+      <c r="BD1" s="95" t="s">
         <v>889</v>
       </c>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BE1" s="95"/>
+      <c r="BF1" s="95"/>
+      <c r="BG1" s="95"/>
+      <c r="BH1" s="95"/>
+      <c r="BI1" s="95"/>
+      <c r="BJ1" s="95" t="s">
         <v>898</v>
       </c>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="46"/>
-      <c r="BP1" s="46" t="s">
+      <c r="BK1" s="95"/>
+      <c r="BL1" s="95"/>
+      <c r="BM1" s="95"/>
+      <c r="BN1" s="95"/>
+      <c r="BO1" s="95"/>
+      <c r="BP1" s="95" t="s">
         <v>899</v>
       </c>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="46"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46" t="s">
+      <c r="BQ1" s="95"/>
+      <c r="BR1" s="95"/>
+      <c r="BS1" s="95"/>
+      <c r="BT1" s="95"/>
+      <c r="BU1" s="95"/>
+      <c r="BV1" s="95" t="s">
         <v>895</v>
       </c>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46" t="s">
+      <c r="BW1" s="95"/>
+      <c r="BX1" s="95"/>
+      <c r="BY1" s="95"/>
+      <c r="BZ1" s="95"/>
+      <c r="CA1" s="95"/>
+      <c r="CB1" s="95" t="s">
         <v>896</v>
       </c>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46"/>
-      <c r="CH1" s="46" t="s">
+      <c r="CC1" s="95"/>
+      <c r="CD1" s="95"/>
+      <c r="CE1" s="95"/>
+      <c r="CF1" s="95"/>
+      <c r="CG1" s="95"/>
+      <c r="CH1" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="CI1" s="46"/>
-      <c r="CJ1" s="46"/>
-      <c r="CK1" s="46"/>
-      <c r="CL1" s="46"/>
-      <c r="CM1" s="46"/>
-      <c r="CN1" s="46" t="s">
+      <c r="CI1" s="95"/>
+      <c r="CJ1" s="95"/>
+      <c r="CK1" s="95"/>
+      <c r="CL1" s="95"/>
+      <c r="CM1" s="95"/>
+      <c r="CN1" s="95" t="s">
         <v>900</v>
       </c>
-      <c r="CO1" s="46"/>
-      <c r="CP1" s="46"/>
-      <c r="CQ1" s="46"/>
-      <c r="CR1" s="46"/>
-      <c r="CS1" s="46"/>
+      <c r="CO1" s="95"/>
+      <c r="CP1" s="95"/>
+      <c r="CQ1" s="95"/>
+      <c r="CR1" s="95"/>
+      <c r="CS1" s="95"/>
     </row>
     <row r="2" spans="1:97" s="7" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
@@ -22644,11 +22671,11 @@
   <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A143" sqref="A143"/>
       <selection pane="topRight" activeCell="A143" sqref="A143"/>
       <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22667,7 +22694,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="96" t="s">
+        <v>1403</v>
+      </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -25069,38 +25098,38 @@
       <c r="A1" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="95" t="s">
         <v>912</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>910</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>913</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46" t="s">
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95" t="s">
         <v>949</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
@@ -25930,62 +25959,62 @@
       <c r="A1" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="95" t="s">
         <v>917</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>390</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>421</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46" t="s">
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46" t="s">
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95" t="s">
         <v>1232</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95" t="s">
         <v>1233</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
     </row>
     <row r="2" spans="1:43" s="7" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
@@ -28368,7 +28397,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28387,7 +28416,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="96" t="s">
+        <v>1403</v>
+      </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -30971,7 +31002,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31778,12 +31809,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31808,7 +31839,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="96" t="s">
+        <v>1404</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -34869,14 +34902,14 @@
       <c r="A1" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
@@ -37116,14 +37149,14 @@
       <c r="A1" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="95" t="s">
         <v>1100</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
@@ -39377,11 +39410,11 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39435,29 +39468,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
@@ -39474,7 +39485,7 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="1">
@@ -39486,7 +39497,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -39494,10 +39505,10 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="1">
@@ -39520,7 +39531,7 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="1">
@@ -39532,19 +39543,22 @@
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -39552,7 +39566,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -39560,7 +39574,7 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="1">
@@ -39572,7 +39586,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -39580,7 +39594,7 @@
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="1">
@@ -39592,7 +39606,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -39600,7 +39614,7 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="1">
@@ -39612,15 +39626,15 @@
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="1">
@@ -39640,7 +39654,7 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M11" s="1">
@@ -39652,15 +39666,15 @@
         <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="1">
@@ -39680,7 +39694,7 @@
       <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="1">
@@ -39689,119 +39703,119 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="L15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -39809,65 +39823,65 @@
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1317</v>
+        <v>238</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1398</v>
+        <v>1231</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
@@ -39876,6 +39890,26 @@
         <v>4</v>
       </c>
       <c r="M22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
     </row>
@@ -40806,44 +40840,44 @@
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="48"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">

--- a/Original/Tables/NewTU_Buildings_ORG.xlsx
+++ b/Original/Tables/NewTU_Buildings_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="1469">
   <si>
     <t>ID</t>
   </si>
@@ -4510,6 +4510,9 @@
   </si>
   <si>
     <t>MultiType_HeadersValue_Quantable</t>
+  </si>
+  <si>
+    <t>FlavorType</t>
   </si>
 </sst>
 </file>
@@ -4786,7 +4789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5117,6 +5120,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5552,7 +5558,7 @@
   <dimension ref="A1:EW142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -5576,28 +5582,28 @@
     <col min="18" max="20" width="4.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" style="16" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" style="17" customWidth="1"/>
-    <col min="23" max="27" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="106" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="128" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="148" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="42" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="106" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="128" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="148" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="154" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -23361,12 +23367,12 @@
   </sheetPr>
   <dimension ref="A1:AM142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23399,167 +23405,243 @@
     <col min="80" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>848</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>849</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>850</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>851</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>852</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>853</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>854</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>855</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>856</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>857</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>858</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>859</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>860</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>861</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>863</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>864</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>845</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>846</v>
-      </c>
-      <c r="U1" s="42" t="s">
-        <v>847</v>
-      </c>
-      <c r="V1" s="42" t="s">
-        <v>865</v>
-      </c>
-      <c r="W1" s="42" t="s">
-        <v>866</v>
-      </c>
-      <c r="X1" s="42" t="s">
-        <v>867</v>
-      </c>
-      <c r="Y1" s="42" t="s">
-        <v>868</v>
-      </c>
-      <c r="Z1" s="42" t="s">
-        <v>869</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>870</v>
-      </c>
-      <c r="AB1" s="41" t="s">
-        <v>871</v>
-      </c>
-      <c r="AC1" s="42" t="s">
-        <v>872</v>
-      </c>
-      <c r="AD1" s="42" t="s">
-        <v>873</v>
-      </c>
-      <c r="AE1" s="42" t="s">
-        <v>874</v>
-      </c>
-      <c r="AF1" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="AG1" s="41" t="s">
-        <v>876</v>
-      </c>
-      <c r="AH1" s="42" t="s">
-        <v>877</v>
-      </c>
-      <c r="AI1" s="42" t="s">
-        <v>878</v>
-      </c>
-      <c r="AJ1" s="43" t="s">
-        <v>879</v>
-      </c>
-      <c r="AK1" s="41" t="s">
-        <v>880</v>
-      </c>
-      <c r="AL1" s="42" t="s">
-        <v>881</v>
-      </c>
-      <c r="AM1" s="43" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="N1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="P1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Q1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="R1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="S1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="T1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="U1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="W1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="X1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Y1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Z1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AA1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AB1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AC1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AD1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AE1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AF1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AG1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AH1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AI1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AJ1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AK1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AL1" s="147" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AM1" s="147" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>1463</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="46"/>
+      <c r="B2" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>849</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>850</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>851</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>854</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>855</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>856</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>861</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>864</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>845</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>846</v>
+      </c>
+      <c r="U2" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="V2" s="42" t="s">
+        <v>865</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>866</v>
+      </c>
+      <c r="X2" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z2" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="AB2" s="41" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC2" s="42" t="s">
+        <v>872</v>
+      </c>
+      <c r="AD2" s="42" t="s">
+        <v>873</v>
+      </c>
+      <c r="AE2" s="42" t="s">
+        <v>874</v>
+      </c>
+      <c r="AF2" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="AH2" s="42" t="s">
+        <v>877</v>
+      </c>
+      <c r="AI2" s="42" t="s">
+        <v>878</v>
+      </c>
+      <c r="AJ2" s="43" t="s">
+        <v>879</v>
+      </c>
+      <c r="AK2" s="41" t="s">
+        <v>880</v>
+      </c>
+      <c r="AL2" s="42" t="s">
+        <v>881</v>
+      </c>
+      <c r="AM2" s="43" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -26201,12 +26283,12 @@
   </sheetPr>
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Original/Tables/NewTU_Buildings_ORG.xlsx
+++ b/Original/Tables/NewTU_Buildings_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="30" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7962" uniqueCount="1465">
   <si>
     <t>ID</t>
   </si>
@@ -4497,22 +4497,10 @@
     <t>HURRY_POPULATION</t>
   </si>
   <si>
-    <t>OneType_HeadersValue_Quantable</t>
-  </si>
-  <si>
-    <t>OneType_HeadersState_Reference</t>
-  </si>
-  <si>
-    <t>OneType_HeadersValue_Check</t>
-  </si>
-  <si>
-    <t>MultiType_HeadersState_Quantable</t>
-  </si>
-  <si>
-    <t>MultiType_HeadersValue_Quantable</t>
-  </si>
-  <si>
     <t>FlavorType</t>
+  </si>
+  <si>
+    <t>Flavor</t>
   </si>
 </sst>
 </file>
@@ -5558,7 +5546,7 @@
   <dimension ref="A1:EW142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -15070,9 +15058,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -15845,9 +15831,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -16626,9 +16610,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -17394,9 +17376,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -18147,9 +18127,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="138"/>
       <c r="C2" s="139"/>
     </row>
@@ -18873,7 +18851,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19015,9 +18993,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A2" s="88"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -19881,9 +19857,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
       <c r="D2" s="103"/>
@@ -20823,9 +20797,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -21741,9 +21713,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -22527,9 +22497,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1464</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -23367,12 +23335,12 @@
   </sheetPr>
   <dimension ref="A1:AM142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23410,118 +23378,118 @@
         <v>832</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="F1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="G1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="I1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="L1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="N1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="O1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="P1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="Q1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="R1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="S1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="T1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="U1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="V1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="W1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="X1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="Y1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="Z1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AA1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AB1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AC1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AD1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AE1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AF1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AG1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AH1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AI1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AJ1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AK1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AL1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AM1" s="147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -25475,7 +25443,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
@@ -26284,11 +26252,11 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26311,9 +26279,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1466</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="15"/>
       <c r="C2" s="2"/>
     </row>
@@ -27185,9 +27151,7 @@
       </c>
     </row>
     <row r="2" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
@@ -28236,9 +28200,7 @@
       </c>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -29204,9 +29166,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A2" s="88"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -30151,9 +30111,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="C2" s="110"/>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
@@ -31096,9 +31054,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -32042,9 +31998,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="C2" s="122"/>
       <c r="D2" s="121"/>
       <c r="E2" s="120"/>
@@ -32980,9 +32934,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="124"/>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -33781,9 +33733,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="124"/>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -34567,9 +34517,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -35651,9 +35599,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="133"/>
       <c r="C2" s="123"/>
       <c r="D2" s="134"/>
@@ -36456,9 +36402,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="133"/>
       <c r="C2" s="123"/>
       <c r="D2" s="134"/>
@@ -37190,7 +37134,7 @@
   </sheetPr>
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
@@ -37222,9 +37166,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="133"/>
       <c r="C2" s="123"/>
       <c r="D2" s="134"/>
@@ -37951,11 +37893,11 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38770,7 +38712,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39305,9 +39247,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1464</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -40047,9 +39987,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1464</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -40805,9 +40743,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -41522,7 +41458,7 @@
   <dimension ref="A1:AQ142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
@@ -41668,9 +41604,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -42531,9 +42465,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -43295,9 +43227,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -44111,9 +44041,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -44882,9 +44810,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -45662,9 +45588,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -46431,9 +46355,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
@@ -47206,9 +47128,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A2" s="88"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>

--- a/Original/Tables/NewTU_Buildings_ORG.xlsx
+++ b/Original/Tables/NewTU_Buildings_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="30" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="20" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="4" r:id="rId1"/>
@@ -5560,7 +5560,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15068,7 +15068,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="80.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -18171,7 +18171,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18193,7 +18193,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="83.25" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>1466</v>
       </c>
@@ -18980,7 +18980,7 @@
       <c r="AP1" s="131"/>
       <c r="AQ1" s="131"/>
     </row>
-    <row r="2" spans="1:43" s="3" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" s="3" customFormat="1" ht="125.25" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>1467</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="3" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" s="3" customFormat="1" ht="125.25" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>1467</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="125.25" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>1467</v>
       </c>
@@ -29464,7 +29464,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33129,7 +33129,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35439,10 +35439,10 @@
   <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36523,7 +36523,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38452,11 +38452,11 @@
   </sheetPr>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38477,7 +38477,7 @@
         <v>832</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>833</v>
+        <v>3</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1469</v>
@@ -38500,8 +38500,9 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" ht="79.5" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
-        <v>3</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="B2" s="88"/>
       <c r="C2" s="24" t="s">
         <v>899</v>
       </c>
@@ -40215,7 +40216,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41091,7 +41092,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -49084,7 +49085,7 @@
   </sheetPr>
   <dimension ref="A1:AQ142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
@@ -50119,7 +50120,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -50947,7 +50948,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -51730,7 +51731,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -52522,7 +52523,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -53303,7 +53304,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>
@@ -54090,7 +54091,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>833</v>
       </c>

--- a/Original/Tables/NewTU_Buildings_ORG.xlsx
+++ b/Original/Tables/NewTU_Buildings_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="20" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8405" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8355" uniqueCount="1476">
   <si>
     <t>ID</t>
   </si>
@@ -29464,7 +29464,7 @@
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:AM2"/>
+      <selection pane="bottomRight" activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30223,10 +30223,10 @@
       <c r="A41" s="5" t="s">
         <v>414</v>
       </c>
+      <c r="T41" s="129">
+        <v>35</v>
+      </c>
       <c r="U41" s="129">
-        <v>35</v>
-      </c>
-      <c r="V41" s="129">
         <v>40</v>
       </c>
       <c r="W41" s="129">
@@ -31332,7 +31332,7 @@
       <c r="D126" s="129">
         <v>30</v>
       </c>
-      <c r="T126" s="129">
+      <c r="U126" s="129">
         <v>5</v>
       </c>
       <c r="W126" s="129">
@@ -31350,7 +31350,7 @@
         <v>25</v>
       </c>
       <c r="W127" s="129">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X127" s="129">
         <v>25</v>
@@ -35438,11 +35438,11 @@
   </sheetPr>
   <dimension ref="A1:AC143"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36283,14 +36283,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="21" t="s">
+    <row r="108" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
         <v>1085</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="G108" s="21">
+      <c r="B108" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="G108" s="18">
         <v>-1</v>
       </c>
     </row>
@@ -38452,7 +38452,7 @@
   </sheetPr>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -41050,7 +41050,7 @@
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
@@ -42969,11 +42969,11 @@
   <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D150" sqref="D150"/>
       <selection pane="topRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomRight" activeCell="B127" sqref="B127:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43649,81 +43649,72 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B129" s="109">
-        <v>15</v>
-      </c>
-      <c r="C129" s="101">
-        <v>15</v>
-      </c>
-      <c r="D129" s="121">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="37" t="s">
         <v>1380</v>
       </c>
@@ -45329,7 +45320,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -45394,14 +45385,14 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -45417,14 +45408,14 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -45440,14 +45431,14 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>4</v>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -45463,14 +45454,14 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -45486,11 +45477,11 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -45506,11 +45497,11 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -45526,11 +45517,11 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>4</v>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -45546,11 +45537,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>4</v>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
@@ -45566,11 +45557,11 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>4</v>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -45586,11 +45577,11 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>4</v>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
@@ -45606,11 +45597,11 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
@@ -45626,11 +45617,11 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>4</v>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
@@ -45646,14 +45637,14 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>4</v>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>4</v>
@@ -45669,11 +45660,11 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>4</v>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
@@ -45689,14 +45680,14 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>4</v>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -45712,14 +45703,14 @@
       <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>4</v>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>5</v>
@@ -45735,11 +45726,11 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>4</v>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>2</v>
@@ -45755,11 +45746,11 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>4</v>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -45775,14 +45766,14 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>4</v>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
@@ -45798,11 +45789,11 @@
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>4</v>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <v>3</v>
@@ -45818,11 +45809,11 @@
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>4</v>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
       </c>
       <c r="M23" s="1">
         <v>2</v>

--- a/Original/Tables/NewTU_Buildings_ORG.xlsx
+++ b/Original/Tables/NewTU_Buildings_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="823"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8355" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357" uniqueCount="1476">
   <si>
     <t>ID</t>
   </si>
@@ -5556,11 +5556,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EW142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6131,7 +6131,7 @@
         <v>66</v>
       </c>
       <c r="AD3" s="11"/>
-      <c r="AI3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
         <v>376</v>
       </c>
       <c r="AD13" s="11"/>
-      <c r="AT13" s="5" t="s">
+      <c r="AU13" s="5" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -7199,6 +7199,9 @@
         <v>66</v>
       </c>
       <c r="AD21" s="40"/>
+      <c r="DC21" s="39" t="s">
+        <v>1094</v>
+      </c>
       <c r="DJ21" s="39">
         <v>1</v>
       </c>
@@ -11262,6 +11265,9 @@
       <c r="Z90" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="AA90" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AD90" s="12"/>
       <c r="AV90" s="6">
         <v>30</v>
@@ -11935,7 +11941,7 @@
         <v>4</v>
       </c>
       <c r="W100" s="4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X100" s="4">
         <v>-1</v>
@@ -12171,6 +12177,9 @@
       </c>
       <c r="AD103" s="13" t="s">
         <v>398</v>
+      </c>
+      <c r="AF103" s="4">
+        <v>1</v>
       </c>
       <c r="AP103" s="4">
         <v>4</v>
@@ -35438,7 +35447,7 @@
   </sheetPr>
   <dimension ref="A1:AC143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
